--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://weg365-my.sharepoint.com/personal/forte_weg_net/Documents/Área de Trabalho/Aplicativo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9EDFC00E-9D0C-4096-BB02-DFBF34DDECC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955C8FD4-F100-46EC-BB4F-BD5611806933}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C3D9C-3A53-41C7-8CC5-F108ACBF74A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>ANAEL O CRUEL</t>
   </si>
@@ -315,6 +315,2608 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1044787823"/>
+        <c:axId val="1044788303"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ANAEL O CRUEL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$24:$AN$24</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$24:$O$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>JARAGUÁ 99 EC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$25:$AN$25</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$25:$O$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TAKAMASSA NOMUROO</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$26:$AN$26</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$26:$O$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SHOWZES F C</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$27:$AN$27</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$27:$O$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>WILIAN H. FC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$28:$AN$28</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$28:$O$28</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PRESTINI FC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$29:$AN$29</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$29:$O$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GD99.FC </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$30:$AN$30</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$30:$O$30</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MARXU</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$31:$AN$31</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$31:$O$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CRV ROCHA </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$32:$AN$32</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$32:$O$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SANTOS M.T.T</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$33:$AN$33</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$33:$O$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CRICIUMA DORTMUND JGS </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$34:$AN$34</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$34:$O$34</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GRÊMIO FOOT-BALL JARAGUAENSE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$35:$AN$35</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$35:$O$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>SIMPLICIO SPORT CLUB</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$36:$AN$36</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$36:$O$36</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>PARANÁ CLUB DE MUNIQUE</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$37:$AN$37</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$37:$O$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>BARZEA51 </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$38:$AN$38</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$38:$O$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ALTO BRACINHO F.C </c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$39:$AN$39</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$39:$O$39</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ISAR7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$40:$AN$40</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$40:$O$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>E. C. HOCHLEITNER</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$41:$AN$41</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$41:$O$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>MORUMBIHEXA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$23:$AN$23</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$23:$O$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="0"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Planilha1!$B$43:$AN$43</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$43:$O$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-78E7-478F-9B57-F37095976F6C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1044787823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044788303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1044788303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1044787823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>536865</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD56788-3405-555E-0F74-5F98E9D28725}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,21 +3236,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="40" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -768,7 +3369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -835,7 +3436,9 @@
       <c r="V2" s="1">
         <v>168.76</v>
       </c>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1">
+        <v>77.959999999999994</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
@@ -854,7 +3457,7 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -921,7 +3524,9 @@
       <c r="V3" s="1">
         <v>124.21</v>
       </c>
-      <c r="W3" s="1"/>
+      <c r="W3" s="1">
+        <v>95.61</v>
+      </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -940,7 +3545,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1007,7 +3612,9 @@
       <c r="V4" s="1">
         <v>172.91</v>
       </c>
-      <c r="W4" s="1"/>
+      <c r="W4" s="1">
+        <v>56.26</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
@@ -1026,7 +3633,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1093,7 +3700,9 @@
       <c r="V5" s="1">
         <v>193.46</v>
       </c>
-      <c r="W5" s="1"/>
+      <c r="W5" s="1">
+        <v>77.56</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -1112,7 +3721,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1179,7 +3788,9 @@
       <c r="V6" s="1">
         <v>169.87</v>
       </c>
-      <c r="W6" s="1"/>
+      <c r="W6" s="1">
+        <v>88.54</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1198,7 +3809,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +3876,9 @@
       <c r="V7" s="1">
         <v>188.61</v>
       </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1">
+        <v>83.76</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -1284,7 +3897,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1351,7 +3964,9 @@
       <c r="V8" s="1">
         <v>199.71</v>
       </c>
-      <c r="W8" s="1"/>
+      <c r="W8" s="1">
+        <v>91.96</v>
+      </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
@@ -1370,7 +3985,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1437,7 +4052,9 @@
       <c r="V9" s="1">
         <v>191.06</v>
       </c>
-      <c r="W9" s="1"/>
+      <c r="W9" s="1">
+        <v>83.06</v>
+      </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -1456,7 +4073,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1523,7 +4140,9 @@
       <c r="V10" s="1">
         <v>187.51</v>
       </c>
-      <c r="W10" s="1"/>
+      <c r="W10" s="1">
+        <v>86.56</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -1542,7 +4161,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1609,7 +4228,9 @@
       <c r="V11" s="1">
         <v>180.01</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="1">
+        <v>65.09</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1628,7 +4249,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1695,7 +4316,9 @@
       <c r="V12" s="1">
         <v>27.86</v>
       </c>
-      <c r="W12" s="1"/>
+      <c r="W12" s="1">
+        <v>42</v>
+      </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1714,7 +4337,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1781,7 +4404,9 @@
       <c r="V13" s="1">
         <v>150.11000000000001</v>
       </c>
-      <c r="W13" s="1"/>
+      <c r="W13" s="1">
+        <v>84.41</v>
+      </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
@@ -1800,7 +4425,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +4492,9 @@
       <c r="V14" s="1">
         <v>160.36000000000001</v>
       </c>
-      <c r="W14" s="1"/>
+      <c r="W14" s="1">
+        <v>50.36</v>
+      </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -1886,7 +4513,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1953,7 +4580,9 @@
       <c r="V15" s="1">
         <v>63.35</v>
       </c>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1">
+        <v>40.770000000000003</v>
+      </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
@@ -1972,7 +4601,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2039,7 +4668,9 @@
       <c r="V16" s="1">
         <v>161.47</v>
       </c>
-      <c r="W16" s="1"/>
+      <c r="W16" s="1">
+        <v>73.489999999999995</v>
+      </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
@@ -2058,7 +4689,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2125,7 +4756,9 @@
       <c r="V17" s="1">
         <v>172.91</v>
       </c>
-      <c r="W17" s="1"/>
+      <c r="W17" s="1">
+        <v>86.11</v>
+      </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
@@ -2144,7 +4777,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2211,7 +4844,9 @@
       <c r="V18" s="1">
         <v>154.22</v>
       </c>
-      <c r="W18" s="1"/>
+      <c r="W18" s="1">
+        <v>59.89</v>
+      </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
@@ -2230,7 +4865,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2297,7 +4932,9 @@
       <c r="V19" s="1">
         <v>164.56</v>
       </c>
-      <c r="W19" s="1"/>
+      <c r="W19" s="1">
+        <v>80.16</v>
+      </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
@@ -2316,7 +4953,7 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2383,7 +5020,9 @@
       <c r="V20" s="1">
         <v>162.46</v>
       </c>
-      <c r="W20" s="1"/>
+      <c r="W20" s="1">
+        <v>77.260000000000005</v>
+      </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
@@ -2402,7 +5041,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2469,7 +5108,9 @@
       <c r="V21" s="1">
         <v>74.61</v>
       </c>
-      <c r="W21" s="1"/>
+      <c r="W21" s="1">
+        <v>43.25</v>
+      </c>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
@@ -2488,9 +5129,2310 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
     </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:D42" si="0">C2+B24</f>
+        <v>129.91</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>203.07999999999998</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:H24" si="1">E2+D24</f>
+        <v>294.58999999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>385.2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>463.63</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>540.06999999999994</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:Q39" si="2">I2+H24</f>
+        <v>648.95999999999992</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>733.32999999999993</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>810.09999999999991</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>912.44999999999993</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>973.58999999999992</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>1095.6299999999999</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>1164.33</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1271.4299999999998</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>1331.1299999999999</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" ref="R24" si="3">R2+Q24</f>
+        <v>1372.29</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24" si="4">S2+R24</f>
+        <v>1487.19</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24:V39" si="5">T2+S24</f>
+        <v>1551.79</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="5"/>
+        <v>1620.35</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" ref="V24" si="6">V2+U24</f>
+        <v>1789.11</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" ref="W24:W43" si="7">W2+V24</f>
+        <v>1867.07</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>58.59</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>147.11000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ref="E25:J34" si="8">E3+D25</f>
+        <v>261.72000000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="8"/>
+        <v>342.55</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="8"/>
+        <v>425.11</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="8"/>
+        <v>515.06000000000006</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="8"/>
+        <v>621.06000000000006</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="8"/>
+        <v>675.33</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" ref="K25:K43" si="9">K3+J25</f>
+        <v>765.97</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:L43" si="10">L3+K25</f>
+        <v>855.74</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" ref="M25:M43" si="11">M3+L25</f>
+        <v>917</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" ref="N25:Q43" si="12">N3+M25</f>
+        <v>997.97</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="12"/>
+        <v>1051.67</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="12"/>
+        <v>1127.49</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>1181.1400000000001</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" ref="R25:R43" si="13">R3+Q25</f>
+        <v>1245.3900000000001</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" ref="S25:S43" si="14">S3+R25</f>
+        <v>1327.8100000000002</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" ref="T25:V43" si="15">T3+S25</f>
+        <v>1406.2100000000003</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="5"/>
+        <v>1474.5700000000002</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="5"/>
+        <v>1598.7800000000002</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="7"/>
+        <v>1694.39</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>56.11</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>147.53</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>229.65</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="8"/>
+        <v>300.38</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="8"/>
+        <v>340.37</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="8"/>
+        <v>444.82</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="8"/>
+        <v>550.26</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="8"/>
+        <v>602.29</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="8"/>
+        <v>647.95999999999992</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="9"/>
+        <v>715.82999999999993</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="10"/>
+        <v>781.52</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="11"/>
+        <v>792.39</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="12"/>
+        <v>886.6</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="12"/>
+        <v>944</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="12"/>
+        <v>1041.2</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>1106.73</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="13"/>
+        <v>1191.6400000000001</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="14"/>
+        <v>1256.74</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="15"/>
+        <v>1320.24</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="5"/>
+        <v>1397.1</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="5"/>
+        <v>1570.01</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="7"/>
+        <v>1626.27</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>166.05</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>237.07</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="8"/>
+        <v>336.19</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="8"/>
+        <v>409.07</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="8"/>
+        <v>514.42999999999995</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="8"/>
+        <v>632.02</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="8"/>
+        <v>742.02</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="8"/>
+        <v>821.93999999999994</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="9"/>
+        <v>887.01</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="10"/>
+        <v>1013.78</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="11"/>
+        <v>1082.1399999999999</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="12"/>
+        <v>1200.1099999999999</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="12"/>
+        <v>1266.9099999999999</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="12"/>
+        <v>1374.7099999999998</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="2"/>
+        <v>1445.3799999999999</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="13"/>
+        <v>1502.1899999999998</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="14"/>
+        <v>1595.6599999999999</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="15"/>
+        <v>1658.2099999999998</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="5"/>
+        <v>1733.5899999999997</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="5"/>
+        <v>1927.0499999999997</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="7"/>
+        <v>2004.6099999999997</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>68.94</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>112.37</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>159.19</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="8"/>
+        <v>218.41</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="8"/>
+        <v>284.49</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="8"/>
+        <v>387.05</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="8"/>
+        <v>478.54</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="8"/>
+        <v>564.08000000000004</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="8"/>
+        <v>627.06000000000006</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="9"/>
+        <v>712.91000000000008</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="10"/>
+        <v>794.60000000000014</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="11"/>
+        <v>856.7600000000001</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="12"/>
+        <v>948.23000000000013</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="12"/>
+        <v>1004.6800000000002</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="12"/>
+        <v>1047.2000000000003</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="2"/>
+        <v>1102.9800000000002</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="13"/>
+        <v>1156.0900000000001</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="14"/>
+        <v>1256.7600000000002</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="15"/>
+        <v>1336.3700000000001</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="5"/>
+        <v>1427.98</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="5"/>
+        <v>1597.85</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="7"/>
+        <v>1686.3899999999999</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>157.08000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>213.18</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="8"/>
+        <v>331.46000000000004</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>419.89000000000004</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="8"/>
+        <v>493.95000000000005</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="8"/>
+        <v>581.81000000000006</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="8"/>
+        <v>692.25</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="8"/>
+        <v>756.67</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="9"/>
+        <v>816.43999999999994</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="10"/>
+        <v>913.16</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="11"/>
+        <v>969.62</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="12"/>
+        <v>1086.8699999999999</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="12"/>
+        <v>1147.6699999999998</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="12"/>
+        <v>1246.6699999999998</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>1328.33</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="13"/>
+        <v>1397.74</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="14"/>
+        <v>1491.74</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="15"/>
+        <v>1563.89</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="5"/>
+        <v>1622.25</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="5"/>
+        <v>1810.8600000000001</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="7"/>
+        <v>1894.6200000000001</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1">
+        <v>62.53</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>152.41</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>226.93</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="8"/>
+        <v>348.33000000000004</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="8"/>
+        <v>416.46000000000004</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="8"/>
+        <v>492.57000000000005</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="8"/>
+        <v>588.12</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="8"/>
+        <v>721.15</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="8"/>
+        <v>782.77</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="9"/>
+        <v>855.93999999999994</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="10"/>
+        <v>948.41</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="11"/>
+        <v>1023.5799999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="12"/>
+        <v>1117.8499999999999</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="12"/>
+        <v>1189.3</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="12"/>
+        <v>1304.3999999999999</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="2"/>
+        <v>1380.9999999999998</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="13"/>
+        <v>1447.7499999999998</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="14"/>
+        <v>1542.5199999999998</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="15"/>
+        <v>1611.1199999999997</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="5"/>
+        <v>1693.2799999999997</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="5"/>
+        <v>1892.9899999999998</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="7"/>
+        <v>1984.9499999999998</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>90.29</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>177.58</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>262.63</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="8"/>
+        <v>378.14</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="8"/>
+        <v>434.82</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="8"/>
+        <v>541.38</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="8"/>
+        <v>617.29</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="8"/>
+        <v>734.23</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="8"/>
+        <v>824.9</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="9"/>
+        <v>891.52</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="10"/>
+        <v>1009.66</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="11"/>
+        <v>1054.32</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="12"/>
+        <v>1151.98</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="12"/>
+        <v>1217.3800000000001</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="12"/>
+        <v>1329.68</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>1401.54</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="13"/>
+        <v>1452.75</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="14"/>
+        <v>1539.41</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="15"/>
+        <v>1601.71</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="5"/>
+        <v>1674.57</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="5"/>
+        <v>1865.6299999999999</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="7"/>
+        <v>1948.6899999999998</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1">
+        <v>74.25</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="0"/>
+        <v>152.54000000000002</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>221.84000000000003</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="8"/>
+        <v>319.3</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>391.52</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="8"/>
+        <v>496.38</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="8"/>
+        <v>585.66999999999996</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="8"/>
+        <v>708.02</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="8"/>
+        <v>785.64</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="9"/>
+        <v>848.76</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="10"/>
+        <v>954.77</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="11"/>
+        <v>1031.93</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="12"/>
+        <v>1151.24</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="12"/>
+        <v>1206.74</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="12"/>
+        <v>1303.04</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="2"/>
+        <v>1377.12</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="13"/>
+        <v>1439.9299999999998</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="14"/>
+        <v>1548.83</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="15"/>
+        <v>1626.9299999999998</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="5"/>
+        <v>1701.5399999999997</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="5"/>
+        <v>1889.0499999999997</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="7"/>
+        <v>1975.6099999999997</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <v>63.85</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="0"/>
+        <v>136.54</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>208.16</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="8"/>
+        <v>301.84000000000003</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="8"/>
+        <v>377.46000000000004</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="8"/>
+        <v>487.67</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="8"/>
+        <v>579.66</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="8"/>
+        <v>732.16</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="8"/>
+        <v>826.26</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="9"/>
+        <v>896.82999999999993</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="10"/>
+        <v>999.8</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="11"/>
+        <v>1081.76</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="12"/>
+        <v>1196.67</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="12"/>
+        <v>1274.5700000000002</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="12"/>
+        <v>1374.5700000000002</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="2"/>
+        <v>1438.14</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="13"/>
+        <v>1480.75</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="14"/>
+        <v>1573.85</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="15"/>
+        <v>1662.8999999999999</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="5"/>
+        <v>1748.9599999999998</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="5"/>
+        <v>1928.9699999999998</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="7"/>
+        <v>1994.0599999999997</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>55.43</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="0"/>
+        <v>121.38</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>203.53</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="8"/>
+        <v>275.61</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>346.54</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="8"/>
+        <v>411.6</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="8"/>
+        <v>486.29</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="8"/>
+        <v>543.38</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="8"/>
+        <v>609.65</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="9"/>
+        <v>664.92</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="10"/>
+        <v>729.93</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="11"/>
+        <v>791.1099999999999</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="12"/>
+        <v>816.18</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="12"/>
+        <v>855.63</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="12"/>
+        <v>892.43</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="2"/>
+        <v>915.82999999999993</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="13"/>
+        <v>938.33999999999992</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="14"/>
+        <v>984.12999999999988</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="15"/>
+        <v>1032.7099999999998</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="5"/>
+        <v>1089.1699999999998</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="5"/>
+        <v>1117.0299999999997</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="7"/>
+        <v>1159.0299999999997</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
+        <v>84.38</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="0"/>
+        <v>156.69999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>220.62</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:J41" si="16">E13+D35</f>
+        <v>308.24</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="16"/>
+        <v>398.12</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="16"/>
+        <v>510.76</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="16"/>
+        <v>600.96</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="16"/>
+        <v>674.92000000000007</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="16"/>
+        <v>742.95</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="9"/>
+        <v>825.67000000000007</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="10"/>
+        <v>951.59</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="11"/>
+        <v>1024.0900000000001</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="12"/>
+        <v>1079.8900000000001</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="12"/>
+        <v>1149.74</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="12"/>
+        <v>1217.04</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="2"/>
+        <v>1285.74</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="13"/>
+        <v>1336.89</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="14"/>
+        <v>1418.25</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="15"/>
+        <v>1462.83</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="5"/>
+        <v>1540.96</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="5"/>
+        <v>1691.0700000000002</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="7"/>
+        <v>1775.4800000000002</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>55.38</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="0"/>
+        <v>111.12</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>159.09</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="16"/>
+        <v>243.75</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="16"/>
+        <v>340.61</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="16"/>
+        <v>420.11</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="16"/>
+        <v>480.14</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="16"/>
+        <v>585.12</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="16"/>
+        <v>652.47</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="9"/>
+        <v>720.78</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="10"/>
+        <v>781.19999999999993</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="11"/>
+        <v>854.91</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="12"/>
+        <v>910</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="12"/>
+        <v>947.65</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="12"/>
+        <v>1010.0699999999999</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="2"/>
+        <v>1061.57</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="13"/>
+        <v>1107.8699999999999</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="14"/>
+        <v>1183.77</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="15"/>
+        <v>1271.1299999999999</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="5"/>
+        <v>1353.4099999999999</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="5"/>
+        <v>1513.77</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="7"/>
+        <v>1564.1299999999999</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>60.59</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>143.21</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>225.98000000000002</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="16"/>
+        <v>293</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="16"/>
+        <v>349.02</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="16"/>
+        <v>404.07</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="16"/>
+        <v>497.03</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="16"/>
+        <v>587.03</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="16"/>
+        <v>627.4</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="9"/>
+        <v>643.54999999999995</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="10"/>
+        <v>730.8</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="11"/>
+        <v>769.1099999999999</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="12"/>
+        <v>830.40999999999985</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="12"/>
+        <v>862.1099999999999</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="12"/>
+        <v>912.00999999999988</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="2"/>
+        <v>932.40999999999985</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="13"/>
+        <v>992.70999999999981</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="14"/>
+        <v>1035.9099999999999</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="15"/>
+        <v>1069.1199999999999</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="5"/>
+        <v>1092.82</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="5"/>
+        <v>1156.1699999999998</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="7"/>
+        <v>1196.9399999999998</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>89.63</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>192.55</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>265.87</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="16"/>
+        <v>398.08000000000004</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="16"/>
+        <v>483.26000000000005</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="16"/>
+        <v>565.67000000000007</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="16"/>
+        <v>655.41000000000008</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="16"/>
+        <v>750.60000000000014</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="16"/>
+        <v>831.23000000000013</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="9"/>
+        <v>861.19000000000017</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="10"/>
+        <v>958.6600000000002</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="11"/>
+        <v>1024.0200000000002</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="12"/>
+        <v>1110.2300000000002</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="12"/>
+        <v>1126.7300000000002</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="12"/>
+        <v>1232.2300000000002</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="2"/>
+        <v>1283.9000000000003</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="13"/>
+        <v>1343.6400000000003</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="14"/>
+        <v>1413.4400000000003</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="15"/>
+        <v>1461.7500000000002</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="5"/>
+        <v>1501.5600000000002</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="5"/>
+        <v>1663.0300000000002</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="7"/>
+        <v>1736.5200000000002</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="1">
+        <v>70.55</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>176.76999999999998</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>234.96999999999997</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="16"/>
+        <v>336.92999999999995</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="16"/>
+        <v>428.44999999999993</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="16"/>
+        <v>526.26</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="16"/>
+        <v>630.5</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="16"/>
+        <v>775.95</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="16"/>
+        <v>842.47</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="9"/>
+        <v>891.57</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="10"/>
+        <v>973.44</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="11"/>
+        <v>1036.8500000000001</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="12"/>
+        <v>1144.2600000000002</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="12"/>
+        <v>1207.9100000000003</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="12"/>
+        <v>1299.7100000000003</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="2"/>
+        <v>1372.9900000000002</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="13"/>
+        <v>1438.3000000000002</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="14"/>
+        <v>1506.9700000000003</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="15"/>
+        <v>1582.4200000000003</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="5"/>
+        <v>1658.2800000000002</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="5"/>
+        <v>1831.1900000000003</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="7"/>
+        <v>1917.3000000000002</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>70.25</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>136.94</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>201.76</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="16"/>
+        <v>300.56</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="16"/>
+        <v>378.09000000000003</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="16"/>
+        <v>462.34000000000003</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="16"/>
+        <v>551.83000000000004</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="16"/>
+        <v>644.04000000000008</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="16"/>
+        <v>730.57</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="9"/>
+        <v>794.5200000000001</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="10"/>
+        <v>893.98000000000013</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="11"/>
+        <v>946.54000000000019</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="12"/>
+        <v>1049.6500000000001</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="12"/>
+        <v>1103.3500000000001</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="12"/>
+        <v>1193.8400000000001</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="12"/>
+        <v>1270.42</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="13"/>
+        <v>1326.27</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="14"/>
+        <v>1422.95</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="15"/>
+        <v>1489.26</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="15"/>
+        <v>1557.91</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="15"/>
+        <v>1712.13</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="7"/>
+        <v>1772.0200000000002</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>63.55</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="0"/>
+        <v>143.34</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>215.24</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="16"/>
+        <v>298.05</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="16"/>
+        <v>366.97</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="16"/>
+        <v>459.13</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="16"/>
+        <v>540.66999999999996</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="16"/>
+        <v>636.21999999999991</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="16"/>
+        <v>667.43999999999994</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="9"/>
+        <v>704.14</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="10"/>
+        <v>819.56</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="11"/>
+        <v>827.3599999999999</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="12"/>
+        <v>924.06999999999994</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="12"/>
+        <v>997.56999999999994</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="12"/>
+        <v>1066.75</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="12"/>
+        <v>1148.6300000000001</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="13"/>
+        <v>1211.5500000000002</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="14"/>
+        <v>1277.7200000000003</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="15"/>
+        <v>1340.5200000000002</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="15"/>
+        <v>1406.0700000000002</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="15"/>
+        <v>1570.63</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="7"/>
+        <v>1650.7900000000002</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="0"/>
+        <v>48.37</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>98.59</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ref="E42:J42" si="17">E20+D42</f>
+        <v>162.57</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="17"/>
+        <v>223.35</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="17"/>
+        <v>304.13</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="17"/>
+        <v>388.49</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="17"/>
+        <v>501.74</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="17"/>
+        <v>536.69000000000005</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="9"/>
+        <v>616.81000000000006</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="10"/>
+        <v>686.12000000000012</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="11"/>
+        <v>737.78000000000009</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="12"/>
+        <v>832.08</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="12"/>
+        <v>891.98</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="12"/>
+        <v>982.28</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="12"/>
+        <v>1043.45</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="13"/>
+        <v>1112.6600000000001</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="14"/>
+        <v>1206.6300000000001</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="15"/>
+        <v>1267.3800000000001</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="15"/>
+        <v>1311.5300000000002</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="15"/>
+        <v>1473.9900000000002</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="7"/>
+        <v>1551.2500000000002</v>
+      </c>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="1">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="C43" si="18">C21+B43</f>
+        <v>144.44</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:J43" si="19">D21+C43</f>
+        <v>199.46</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="19"/>
+        <v>268.74</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="19"/>
+        <v>352.67</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="19"/>
+        <v>449.90000000000003</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="19"/>
+        <v>539.46</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="19"/>
+        <v>600.95000000000005</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="19"/>
+        <v>631.78000000000009</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="9"/>
+        <v>680.30000000000007</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="10"/>
+        <v>742.05000000000007</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="11"/>
+        <v>771.2600000000001</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="12"/>
+        <v>798.61000000000013</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="12"/>
+        <v>820.21000000000015</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="12"/>
+        <v>873.9100000000002</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" ref="Q43" si="20">Q21+P43</f>
+        <v>909.81000000000017</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="13"/>
+        <v>978.4100000000002</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="14"/>
+        <v>1027.6900000000003</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="15"/>
+        <v>1068.7600000000002</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="15"/>
+        <v>1110.5600000000002</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="15"/>
+        <v>1185.17</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="7"/>
+        <v>1228.42</v>
+      </c>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2502,14 +7444,14 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -2536,7 +7478,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2566,7 +7508,7 @@
         <v>593.54000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2596,7 +7538,7 @@
         <v>528.69000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2626,7 +7568,7 @@
         <v>510.87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +7598,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2686,7 +7628,7 @@
         <v>520.65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +7658,7 @@
         <v>609.96</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2746,7 +7688,7 @@
         <v>631.2700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2776,7 +7718,7 @@
         <v>646.94000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2806,7 +7748,7 @@
         <v>629.73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +7778,7 @@
         <v>659.47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2866,7 +7808,7 @@
         <v>487.43000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +7838,7 @@
         <v>602.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2926,7 +7868,7 @@
         <v>529.38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2956,7 +7898,7 @@
         <v>504.40999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2986,7 +7928,7 @@
         <v>647.68000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3016,7 +7958,7 @@
         <v>669.73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -3046,7 +7988,7 @@
         <v>577.35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -3076,7 +8018,7 @@
         <v>556.43000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -3106,7 +8048,7 @@
         <v>534.16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -3130,7 +8072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3162,7 +8104,7 @@
         <v>574.43000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3194,7 +8136,7 @@
         <v>598.93999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -3226,7 +8168,7 @@
         <v>510.19000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -3258,7 +8200,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +8232,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3322,7 +8264,7 @@
         <v>612.82000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -3354,7 +8296,7 @@
         <v>629.33000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -3386,7 +8328,7 @@
         <v>556.65000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3418,7 +8360,7 @@
         <v>611.59</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -3450,7 +8392,7 @@
         <v>659.17000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -3482,7 +8424,7 @@
         <v>502.54999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3514,7 +8456,7 @@
         <v>582.06999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -3546,7 +8488,7 @@
         <v>536.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +8520,7 @@
         <v>518.6099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3610,7 +8552,7 @@
         <v>642.43000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3642,7 +8584,7 @@
         <v>673.42999999999984</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -3674,7 +8616,7 @@
         <v>596.73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -3706,7 +8648,7 @@
         <v>561.82000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +8694,7 @@
       <selection sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFD21AD-51E9-42F8-BA85-BF1E91EA5769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14A0BF-8EA0-4A27-97BA-4E01BAC43791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="855" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
+    <workbookView xWindow="4200" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -637,17 +637,17 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="40" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="15" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -767,7 +767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -837,8 +837,12 @@
       <c r="W2" s="1">
         <v>77.959999999999994</v>
       </c>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="X2" s="1">
+        <v>99.2</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>39.58</v>
+      </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -855,7 +859,7 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -925,8 +929,12 @@
       <c r="W3" s="1">
         <v>95.61</v>
       </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="X3" s="1">
+        <v>91.1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>39.06</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -943,7 +951,7 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1013,8 +1021,12 @@
       <c r="W4" s="1">
         <v>56.26</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="X4" s="1">
+        <v>65.02</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>80.86</v>
+      </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -1031,7 +1043,7 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1101,8 +1113,12 @@
       <c r="W5" s="1">
         <v>77.56</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="X5" s="1">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>71.28</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1119,7 +1135,7 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1189,8 +1205,12 @@
       <c r="W6" s="1">
         <v>88.54</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="X6" s="1">
+        <v>91.8</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>62.84</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1207,7 +1227,7 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1277,8 +1297,12 @@
       <c r="W7" s="1">
         <v>83.76</v>
       </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="X7" s="1">
+        <v>100.47</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>43.63</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1295,7 +1319,7 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1365,8 +1389,12 @@
       <c r="W8" s="1">
         <v>91.96</v>
       </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="X8" s="1">
+        <v>106.5</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>85.18</v>
+      </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1383,7 +1411,7 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1453,8 +1481,12 @@
       <c r="W9" s="1">
         <v>83.06</v>
       </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="X9" s="1">
+        <v>69.95</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>49.81</v>
+      </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1471,7 +1503,7 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1541,8 +1573,12 @@
       <c r="W10" s="1">
         <v>86.56</v>
       </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="X10" s="1">
+        <v>66.45</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>69.45</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1559,7 +1595,7 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1629,8 +1665,12 @@
       <c r="W11" s="1">
         <v>65.09</v>
       </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="X11" s="1">
+        <v>110.47</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45.83</v>
+      </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -1647,7 +1687,7 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1717,8 +1757,12 @@
       <c r="W12" s="1">
         <v>42</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="X12" s="1">
+        <v>31.14</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>40.6</v>
+      </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -1735,7 +1779,7 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1805,8 +1849,12 @@
       <c r="W13" s="1">
         <v>84.41</v>
       </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="X13" s="1">
+        <v>93</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>19.41</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1823,7 +1871,7 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1893,8 +1941,12 @@
       <c r="W14" s="1">
         <v>50.36</v>
       </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="X14" s="1">
+        <v>61.6</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>46.11</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1911,7 +1963,7 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1981,8 +2033,12 @@
       <c r="W15" s="1">
         <v>40.770000000000003</v>
       </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="X15" s="1">
+        <v>23.69</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>41.54</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1999,7 +2055,7 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2069,8 +2125,12 @@
       <c r="W16" s="1">
         <v>73.489999999999995</v>
       </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="X16" s="1">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>63.31</v>
+      </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -2087,7 +2147,7 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -2157,8 +2217,12 @@
       <c r="W17" s="1">
         <v>86.11</v>
       </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="X17" s="1">
+        <v>91.05</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>71.58</v>
+      </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -2175,7 +2239,7 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -2245,8 +2309,12 @@
       <c r="W18" s="1">
         <v>59.89</v>
       </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="X18" s="1">
+        <v>67.23</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>58.61</v>
+      </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -2263,7 +2331,7 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -2333,8 +2401,12 @@
       <c r="W19" s="1">
         <v>80.16</v>
       </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="X19" s="1">
+        <v>59.45</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>43.35</v>
+      </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2351,7 +2423,7 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2421,8 +2493,12 @@
       <c r="W20" s="1">
         <v>77.260000000000005</v>
       </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="X20" s="1">
+        <v>59.07</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>49.08</v>
+      </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2439,7 +2515,7 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -2509,8 +2585,12 @@
       <c r="W21" s="1">
         <v>43.25</v>
       </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
+      <c r="X21" s="1">
+        <v>84.54</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>46.54</v>
+      </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2541,14 +2621,14 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -2575,7 +2655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2685,7 @@
         <v>593.54000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2635,7 +2715,7 @@
         <v>528.69000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2745,7 @@
         <v>510.87</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2775,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2805,7 @@
         <v>520.65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2755,7 +2835,7 @@
         <v>609.96</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2785,7 +2865,7 @@
         <v>631.2700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2815,7 +2895,7 @@
         <v>646.94000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2845,7 +2925,7 @@
         <v>629.73</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2875,7 +2955,7 @@
         <v>659.47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2985,7 @@
         <v>487.43000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +3015,7 @@
         <v>602.6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2965,7 +3045,7 @@
         <v>529.38</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -2995,7 +3075,7 @@
         <v>504.40999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -3025,7 +3105,7 @@
         <v>647.68000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3135,7 @@
         <v>669.73</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -3085,7 +3165,7 @@
         <v>577.35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -3115,7 +3195,7 @@
         <v>556.43000000000006</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3225,7 @@
         <v>534.16</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>19</v>
@@ -3169,7 +3249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -3201,7 +3281,7 @@
         <v>574.43000000000006</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3233,7 +3313,7 @@
         <v>598.93999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
@@ -3265,7 +3345,7 @@
         <v>510.19000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -3297,7 +3377,7 @@
         <v>649.24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -3329,7 +3409,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -3361,7 +3441,7 @@
         <v>612.82000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3473,7 @@
         <v>629.33000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -3425,7 +3505,7 @@
         <v>556.65000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3457,7 +3537,7 @@
         <v>611.59</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>14</v>
       </c>
@@ -3489,7 +3569,7 @@
         <v>659.17000000000007</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -3521,7 +3601,7 @@
         <v>502.54999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3553,7 +3633,7 @@
         <v>582.06999999999994</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3665,7 @@
         <v>536.53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
@@ -3617,7 +3697,7 @@
         <v>518.6099999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3649,7 +3729,7 @@
         <v>642.43000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3681,7 +3761,7 @@
         <v>673.42999999999984</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -3713,7 +3793,7 @@
         <v>596.73</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -3745,7 +3825,7 @@
         <v>561.82000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3871,7 @@
       <selection sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14A0BF-8EA0-4A27-97BA-4E01BAC43791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC612CD-436A-480A-ACD2-020A54CE60BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AN$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha3!$I$1:$I$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>ANAEL O CRUEL</t>
   </si>
@@ -212,9 +213,6 @@
   </si>
   <si>
     <t>Rodada 38</t>
-  </si>
-  <si>
-    <t>Rodada 39</t>
   </si>
   <si>
     <t>Total</t>
@@ -227,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +235,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,12 +300,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,20 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">
-  <dimension ref="A1:AN21"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="15" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="40" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -767,85 +775,91 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>74.489999999999995</v>
+        <v>62.53</v>
       </c>
       <c r="C2" s="1">
-        <v>55.42</v>
+        <v>89.88</v>
       </c>
       <c r="D2" s="1">
+        <v>74.52</v>
+      </c>
+      <c r="E2" s="1">
+        <v>121.4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>68.13</v>
+      </c>
+      <c r="G2" s="1">
+        <v>76.11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>95.55</v>
+      </c>
+      <c r="I2" s="1">
+        <v>133.03</v>
+      </c>
+      <c r="J2" s="1">
+        <v>61.62</v>
+      </c>
+      <c r="K2" s="1">
         <v>73.17</v>
       </c>
-      <c r="E2" s="1">
-        <v>91.51</v>
-      </c>
-      <c r="F2" s="1">
-        <v>90.61</v>
-      </c>
-      <c r="G2" s="1">
-        <v>78.430000000000007</v>
-      </c>
-      <c r="H2" s="1">
-        <v>76.44</v>
-      </c>
-      <c r="I2" s="1">
-        <v>108.89</v>
-      </c>
-      <c r="J2" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="K2" s="1">
-        <v>76.77</v>
-      </c>
       <c r="L2" s="1">
-        <v>102.35</v>
+        <v>92.47</v>
       </c>
       <c r="M2" s="1">
-        <v>61.14</v>
+        <v>75.17</v>
       </c>
       <c r="N2" s="1">
-        <v>122.04</v>
+        <v>94.27</v>
       </c>
       <c r="O2" s="1">
-        <v>68.7</v>
+        <v>71.45</v>
       </c>
       <c r="P2" s="1">
-        <v>107.1</v>
+        <v>115.1</v>
       </c>
       <c r="Q2" s="1">
-        <v>59.7</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="R2" s="1">
-        <v>41.16</v>
+        <v>66.75</v>
       </c>
       <c r="S2" s="1">
-        <v>114.9</v>
+        <v>94.77</v>
       </c>
       <c r="T2" s="1">
-        <v>64.599999999999994</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="U2" s="1">
-        <v>68.56</v>
+        <v>82.16</v>
       </c>
       <c r="V2" s="1">
-        <v>168.76</v>
+        <v>199.71</v>
       </c>
       <c r="W2" s="1">
-        <v>77.959999999999994</v>
+        <v>91.96</v>
       </c>
       <c r="X2" s="1">
-        <v>99.2</v>
+        <v>106.5</v>
       </c>
       <c r="Y2" s="1">
-        <v>39.58</v>
-      </c>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
+        <v>85.18</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>93.94</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>91.47</v>
+      </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -857,87 +871,100 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN2" s="5">
+        <f t="shared" ref="AN2:AN21" si="0">SUM(B2:AM2)</f>
+        <v>2441.3899999999994</v>
+      </c>
+      <c r="AO2">
+        <f>AN2-AN2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>58.59</v>
+        <v>92.79</v>
       </c>
       <c r="D3" s="1">
-        <v>88.52</v>
+        <v>71.02</v>
       </c>
       <c r="E3" s="1">
-        <v>114.61</v>
+        <v>99.12</v>
       </c>
       <c r="F3" s="1">
-        <v>80.83</v>
+        <v>72.88</v>
       </c>
       <c r="G3" s="1">
-        <v>82.56</v>
+        <v>105.36</v>
       </c>
       <c r="H3" s="1">
-        <v>89.95</v>
+        <v>117.59</v>
       </c>
       <c r="I3" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J3" s="1">
-        <v>54.27</v>
+        <v>79.92</v>
       </c>
       <c r="K3" s="1">
-        <v>90.64</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="L3" s="1">
-        <v>89.77</v>
+        <v>126.77</v>
       </c>
       <c r="M3" s="1">
-        <v>61.26</v>
+        <v>68.36</v>
       </c>
       <c r="N3" s="1">
-        <v>80.97</v>
+        <v>117.97</v>
       </c>
       <c r="O3" s="1">
-        <v>53.7</v>
+        <v>66.8</v>
       </c>
       <c r="P3" s="1">
-        <v>75.819999999999993</v>
+        <v>107.8</v>
       </c>
       <c r="Q3" s="1">
-        <v>53.65</v>
+        <v>70.67</v>
       </c>
       <c r="R3" s="1">
-        <v>64.25</v>
+        <v>56.81</v>
       </c>
       <c r="S3" s="1">
-        <v>82.42</v>
+        <v>93.47</v>
       </c>
       <c r="T3" s="1">
-        <v>78.400000000000006</v>
+        <v>62.55</v>
       </c>
       <c r="U3" s="1">
-        <v>68.36</v>
+        <v>75.38</v>
       </c>
       <c r="V3" s="1">
-        <v>124.21</v>
+        <v>193.46</v>
       </c>
       <c r="W3" s="1">
-        <v>95.61</v>
+        <v>77.56</v>
       </c>
       <c r="X3" s="1">
-        <v>91.1</v>
+        <v>98</v>
       </c>
       <c r="Y3" s="1">
-        <v>39.06</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
+        <v>71.28</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>53.85</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>92.44</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>99.07</v>
+      </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -949,87 +976,100 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN3" s="5">
+        <f t="shared" si="0"/>
+        <v>2419.25</v>
+      </c>
+      <c r="AO3">
+        <f>AN3-AN2</f>
+        <v>-22.139999999999418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>56.11</v>
+        <v>63.85</v>
       </c>
       <c r="C4" s="1">
-        <v>91.42</v>
+        <v>72.69</v>
       </c>
       <c r="D4" s="1">
-        <v>82.12</v>
+        <v>71.62</v>
       </c>
       <c r="E4" s="1">
-        <v>70.73</v>
+        <v>93.68</v>
       </c>
       <c r="F4" s="1">
-        <v>39.99</v>
+        <v>75.62</v>
       </c>
       <c r="G4" s="1">
-        <v>104.45</v>
+        <v>110.21</v>
       </c>
       <c r="H4" s="1">
-        <v>105.44</v>
+        <v>91.99</v>
       </c>
       <c r="I4" s="1">
-        <v>52.03</v>
+        <v>152.5</v>
       </c>
       <c r="J4" s="1">
-        <v>45.67</v>
+        <v>94.1</v>
       </c>
       <c r="K4" s="1">
-        <v>67.87</v>
+        <v>70.569999999999993</v>
       </c>
       <c r="L4" s="1">
-        <v>65.69</v>
+        <v>102.97</v>
       </c>
       <c r="M4" s="1">
-        <v>10.87</v>
+        <v>81.96</v>
       </c>
       <c r="N4" s="1">
-        <v>94.21</v>
+        <v>114.91</v>
       </c>
       <c r="O4" s="1">
-        <v>57.4</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="P4" s="1">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="1">
-        <v>65.53</v>
+        <v>63.57</v>
       </c>
       <c r="R4" s="1">
-        <v>84.91</v>
+        <v>42.61</v>
       </c>
       <c r="S4" s="1">
-        <v>65.099999999999994</v>
+        <v>93.1</v>
       </c>
       <c r="T4" s="1">
-        <v>63.5</v>
+        <v>89.05</v>
       </c>
       <c r="U4" s="1">
-        <v>76.86</v>
+        <v>86.06</v>
       </c>
       <c r="V4" s="1">
-        <v>172.91</v>
+        <v>180.01</v>
       </c>
       <c r="W4" s="1">
-        <v>56.26</v>
+        <v>65.09</v>
       </c>
       <c r="X4" s="1">
-        <v>65.02</v>
+        <v>110.47</v>
       </c>
       <c r="Y4" s="1">
-        <v>80.86</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
+        <v>45.83</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>51.75</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>55.55</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>105.97</v>
+      </c>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -1041,87 +1081,100 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN4" s="5">
+        <f t="shared" si="0"/>
+        <v>2363.6299999999997</v>
+      </c>
+      <c r="AO4">
+        <f>AN4-AN2</f>
+        <v>-77.759999999999764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>73.260000000000005</v>
+        <v>74.25</v>
       </c>
       <c r="C5" s="1">
-        <v>92.79</v>
+        <v>78.290000000000006</v>
       </c>
       <c r="D5" s="1">
-        <v>71.02</v>
+        <v>69.3</v>
       </c>
       <c r="E5" s="1">
-        <v>99.12</v>
+        <v>97.46</v>
       </c>
       <c r="F5" s="1">
-        <v>72.88</v>
+        <v>72.22</v>
       </c>
       <c r="G5" s="1">
-        <v>105.36</v>
+        <v>104.86</v>
       </c>
       <c r="H5" s="1">
-        <v>117.59</v>
+        <v>89.29</v>
       </c>
       <c r="I5" s="1">
-        <v>110</v>
+        <v>122.35</v>
       </c>
       <c r="J5" s="1">
-        <v>79.92</v>
+        <v>77.62</v>
       </c>
       <c r="K5" s="1">
-        <v>65.069999999999993</v>
+        <v>63.12</v>
       </c>
       <c r="L5" s="1">
-        <v>126.77</v>
+        <v>106.01</v>
       </c>
       <c r="M5" s="1">
-        <v>68.36</v>
+        <v>77.16</v>
       </c>
       <c r="N5" s="1">
-        <v>117.97</v>
+        <v>119.31</v>
       </c>
       <c r="O5" s="1">
-        <v>66.8</v>
+        <v>55.5</v>
       </c>
       <c r="P5" s="1">
-        <v>107.8</v>
+        <v>96.3</v>
       </c>
       <c r="Q5" s="1">
-        <v>70.67</v>
+        <v>74.08</v>
       </c>
       <c r="R5" s="1">
-        <v>56.81</v>
+        <v>62.81</v>
       </c>
       <c r="S5" s="1">
-        <v>93.47</v>
+        <v>108.9</v>
       </c>
       <c r="T5" s="1">
-        <v>62.55</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="U5" s="1">
-        <v>75.38</v>
+        <v>74.61</v>
       </c>
       <c r="V5" s="1">
-        <v>193.46</v>
+        <v>187.51</v>
       </c>
       <c r="W5" s="1">
-        <v>77.56</v>
+        <v>86.56</v>
       </c>
       <c r="X5" s="1">
-        <v>98</v>
+        <v>66.45</v>
       </c>
       <c r="Y5" s="1">
-        <v>71.28</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
+        <v>69.45</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>54.16</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>60.62</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>114.87</v>
+      </c>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1133,87 +1186,100 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN5" s="5">
+        <f t="shared" si="0"/>
+        <v>2341.1599999999994</v>
+      </c>
+      <c r="AO5">
+        <f>AN5-AN2</f>
+        <v>-100.23000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>68.94</v>
+        <v>90.29</v>
       </c>
       <c r="C6" s="1">
-        <v>43.43</v>
+        <v>87.29</v>
       </c>
       <c r="D6" s="1">
-        <v>46.82</v>
+        <v>85.05</v>
       </c>
       <c r="E6" s="1">
-        <v>59.22</v>
+        <v>115.51</v>
       </c>
       <c r="F6" s="1">
-        <v>66.08</v>
+        <v>56.68</v>
       </c>
       <c r="G6" s="1">
-        <v>102.56</v>
+        <v>106.56</v>
       </c>
       <c r="H6" s="1">
-        <v>91.49</v>
+        <v>75.91</v>
       </c>
       <c r="I6" s="1">
-        <v>85.54</v>
+        <v>116.94</v>
       </c>
       <c r="J6" s="1">
-        <v>62.98</v>
+        <v>90.67</v>
       </c>
       <c r="K6" s="1">
-        <v>85.85</v>
+        <v>66.62</v>
       </c>
       <c r="L6" s="1">
-        <v>81.69</v>
+        <v>118.14</v>
       </c>
       <c r="M6" s="1">
-        <v>62.16</v>
+        <v>44.66</v>
       </c>
       <c r="N6" s="1">
-        <v>91.47</v>
+        <v>97.66</v>
       </c>
       <c r="O6" s="1">
-        <v>56.45</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="P6" s="1">
-        <v>42.52</v>
+        <v>112.3</v>
       </c>
       <c r="Q6" s="1">
-        <v>55.78</v>
+        <v>71.86</v>
       </c>
       <c r="R6" s="1">
-        <v>53.11</v>
+        <v>51.21</v>
       </c>
       <c r="S6" s="1">
-        <v>100.67</v>
+        <v>86.66</v>
       </c>
       <c r="T6" s="1">
-        <v>79.61</v>
+        <v>62.3</v>
       </c>
       <c r="U6" s="1">
-        <v>91.61</v>
+        <v>72.86</v>
       </c>
       <c r="V6" s="1">
-        <v>169.87</v>
+        <v>191.06</v>
       </c>
       <c r="W6" s="1">
-        <v>88.54</v>
+        <v>83.06</v>
       </c>
       <c r="X6" s="1">
-        <v>91.8</v>
+        <v>69.95</v>
       </c>
       <c r="Y6" s="1">
-        <v>62.84</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
+        <v>49.81</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>76.94</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>64.97</v>
+      </c>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -1225,87 +1291,100 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN6" s="5">
+        <f t="shared" si="0"/>
+        <v>2278.5099999999998</v>
+      </c>
+      <c r="AO6">
+        <f>AN6-AN2</f>
+        <v>-162.87999999999965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
-        <v>74.790000000000006</v>
+        <v>70.55</v>
       </c>
       <c r="C7" s="1">
-        <v>82.29</v>
+        <v>106.22</v>
       </c>
       <c r="D7" s="1">
-        <v>56.1</v>
+        <v>58.2</v>
       </c>
       <c r="E7" s="1">
-        <v>118.28</v>
+        <v>101.96</v>
       </c>
       <c r="F7" s="1">
-        <v>88.43</v>
+        <v>91.52</v>
       </c>
       <c r="G7" s="1">
-        <v>74.06</v>
+        <v>97.81</v>
       </c>
       <c r="H7" s="1">
-        <v>87.86</v>
+        <v>104.24</v>
       </c>
       <c r="I7" s="1">
-        <v>110.44</v>
+        <v>145.44999999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>64.42</v>
+        <v>66.52</v>
       </c>
       <c r="K7" s="1">
-        <v>59.77</v>
+        <v>49.1</v>
       </c>
       <c r="L7" s="1">
-        <v>96.72</v>
+        <v>81.87</v>
       </c>
       <c r="M7" s="1">
-        <v>56.46</v>
+        <v>63.41</v>
       </c>
       <c r="N7" s="1">
-        <v>117.25</v>
+        <v>107.41</v>
       </c>
       <c r="O7" s="1">
-        <v>60.8</v>
+        <v>63.65</v>
       </c>
       <c r="P7" s="1">
-        <v>99</v>
+        <v>91.8</v>
       </c>
       <c r="Q7" s="1">
-        <v>81.66</v>
+        <v>73.28</v>
       </c>
       <c r="R7" s="1">
-        <v>69.41</v>
+        <v>65.31</v>
       </c>
       <c r="S7" s="1">
-        <v>94</v>
+        <v>68.67</v>
       </c>
       <c r="T7" s="1">
-        <v>72.150000000000006</v>
+        <v>75.45</v>
       </c>
       <c r="U7" s="1">
-        <v>58.36</v>
+        <v>75.86</v>
       </c>
       <c r="V7" s="1">
-        <v>188.61</v>
+        <v>172.91</v>
       </c>
       <c r="W7" s="1">
-        <v>83.76</v>
+        <v>86.11</v>
       </c>
       <c r="X7" s="1">
-        <v>100.47</v>
+        <v>91.05</v>
       </c>
       <c r="Y7" s="1">
-        <v>43.63</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
+        <v>71.58</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>91.34</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>75.87</v>
+      </c>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -1317,87 +1396,100 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN7" s="5">
+        <f t="shared" si="0"/>
+        <v>2287.7400000000002</v>
+      </c>
+      <c r="AO7">
+        <f>AN7-AN2</f>
+        <v>-153.64999999999918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>62.53</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="C8" s="1">
-        <v>89.88</v>
+        <v>82.29</v>
       </c>
       <c r="D8" s="1">
-        <v>74.52</v>
+        <v>56.1</v>
       </c>
       <c r="E8" s="1">
-        <v>121.4</v>
+        <v>118.28</v>
       </c>
       <c r="F8" s="1">
-        <v>68.13</v>
+        <v>88.43</v>
       </c>
       <c r="G8" s="1">
-        <v>76.11</v>
+        <v>74.06</v>
       </c>
       <c r="H8" s="1">
-        <v>95.55</v>
+        <v>87.86</v>
       </c>
       <c r="I8" s="1">
-        <v>133.03</v>
+        <v>110.44</v>
       </c>
       <c r="J8" s="1">
-        <v>61.62</v>
+        <v>64.42</v>
       </c>
       <c r="K8" s="1">
-        <v>73.17</v>
+        <v>59.77</v>
       </c>
       <c r="L8" s="1">
-        <v>92.47</v>
+        <v>96.72</v>
       </c>
       <c r="M8" s="1">
-        <v>75.17</v>
+        <v>56.46</v>
       </c>
       <c r="N8" s="1">
-        <v>94.27</v>
+        <v>117.25</v>
       </c>
       <c r="O8" s="1">
-        <v>71.45</v>
+        <v>60.8</v>
       </c>
       <c r="P8" s="1">
-        <v>115.1</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="1">
-        <v>76.599999999999994</v>
+        <v>81.66</v>
       </c>
       <c r="R8" s="1">
-        <v>66.75</v>
+        <v>69.41</v>
       </c>
       <c r="S8" s="1">
-        <v>94.77</v>
+        <v>94</v>
       </c>
       <c r="T8" s="1">
-        <v>68.599999999999994</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="U8" s="1">
-        <v>82.16</v>
+        <v>58.36</v>
       </c>
       <c r="V8" s="1">
-        <v>199.71</v>
+        <v>188.61</v>
       </c>
       <c r="W8" s="1">
-        <v>91.96</v>
+        <v>83.76</v>
       </c>
       <c r="X8" s="1">
-        <v>106.5</v>
+        <v>100.47</v>
       </c>
       <c r="Y8" s="1">
-        <v>85.18</v>
-      </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
+        <v>43.63</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>98.84</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>96.45</v>
+      </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -1409,87 +1501,100 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN8" s="5">
+        <f t="shared" si="0"/>
+        <v>2288.21</v>
+      </c>
+      <c r="AO8">
+        <f>AN8-AN2</f>
+        <v>-153.17999999999938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <v>90.29</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C9" s="1">
-        <v>87.29</v>
+        <v>55.42</v>
       </c>
       <c r="D9" s="1">
-        <v>85.05</v>
+        <v>73.17</v>
       </c>
       <c r="E9" s="1">
-        <v>115.51</v>
+        <v>91.51</v>
       </c>
       <c r="F9" s="1">
-        <v>56.68</v>
+        <v>90.61</v>
       </c>
       <c r="G9" s="1">
-        <v>106.56</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="H9" s="1">
-        <v>75.91</v>
+        <v>76.44</v>
       </c>
       <c r="I9" s="1">
-        <v>116.94</v>
+        <v>108.89</v>
       </c>
       <c r="J9" s="1">
-        <v>90.67</v>
+        <v>84.37</v>
       </c>
       <c r="K9" s="1">
-        <v>66.62</v>
+        <v>76.77</v>
       </c>
       <c r="L9" s="1">
-        <v>118.14</v>
+        <v>102.35</v>
       </c>
       <c r="M9" s="1">
-        <v>44.66</v>
+        <v>61.14</v>
       </c>
       <c r="N9" s="1">
-        <v>97.66</v>
+        <v>122.04</v>
       </c>
       <c r="O9" s="1">
-        <v>65.400000000000006</v>
+        <v>68.7</v>
       </c>
       <c r="P9" s="1">
-        <v>112.3</v>
+        <v>107.1</v>
       </c>
       <c r="Q9" s="1">
-        <v>71.86</v>
+        <v>59.7</v>
       </c>
       <c r="R9" s="1">
-        <v>51.21</v>
+        <v>41.16</v>
       </c>
       <c r="S9" s="1">
-        <v>86.66</v>
+        <v>114.9</v>
       </c>
       <c r="T9" s="1">
-        <v>62.3</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="U9" s="1">
-        <v>72.86</v>
+        <v>68.56</v>
       </c>
       <c r="V9" s="1">
-        <v>191.06</v>
+        <v>168.76</v>
       </c>
       <c r="W9" s="1">
-        <v>83.06</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>69.95</v>
+        <v>99.2</v>
       </c>
       <c r="Y9" s="1">
-        <v>49.81</v>
-      </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+        <v>39.58</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>59.86</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>86.04</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>49.97</v>
+      </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1501,87 +1606,100 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN9" s="5">
+        <f t="shared" si="0"/>
+        <v>2201.7199999999998</v>
+      </c>
+      <c r="AO9">
+        <f>AN9-AN2</f>
+        <v>-239.66999999999962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>74.25</v>
+        <v>70.25</v>
       </c>
       <c r="C10" s="1">
-        <v>78.290000000000006</v>
+        <v>66.69</v>
       </c>
       <c r="D10" s="1">
-        <v>69.3</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="E10" s="1">
-        <v>97.46</v>
+        <v>98.8</v>
       </c>
       <c r="F10" s="1">
-        <v>72.22</v>
+        <v>77.53</v>
       </c>
       <c r="G10" s="1">
-        <v>104.86</v>
+        <v>84.25</v>
       </c>
       <c r="H10" s="1">
-        <v>89.29</v>
+        <v>89.49</v>
       </c>
       <c r="I10" s="1">
-        <v>122.35</v>
+        <v>92.21</v>
       </c>
       <c r="J10" s="1">
-        <v>77.62</v>
+        <v>86.53</v>
       </c>
       <c r="K10" s="1">
-        <v>63.12</v>
+        <v>63.95</v>
       </c>
       <c r="L10" s="1">
-        <v>106.01</v>
+        <v>99.46</v>
       </c>
       <c r="M10" s="1">
-        <v>77.16</v>
+        <v>52.56</v>
       </c>
       <c r="N10" s="1">
-        <v>119.31</v>
+        <v>103.11</v>
       </c>
       <c r="O10" s="1">
-        <v>55.5</v>
+        <v>53.7</v>
       </c>
       <c r="P10" s="1">
-        <v>96.3</v>
+        <v>90.49</v>
       </c>
       <c r="Q10" s="1">
-        <v>74.08</v>
+        <v>76.58</v>
       </c>
       <c r="R10" s="1">
-        <v>62.81</v>
+        <v>55.85</v>
       </c>
       <c r="S10" s="1">
-        <v>108.9</v>
+        <v>96.68</v>
       </c>
       <c r="T10" s="1">
-        <v>78.099999999999994</v>
+        <v>66.31</v>
       </c>
       <c r="U10" s="1">
-        <v>74.61</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="V10" s="1">
-        <v>187.51</v>
+        <v>154.22</v>
       </c>
       <c r="W10" s="1">
-        <v>86.56</v>
+        <v>59.89</v>
       </c>
       <c r="X10" s="1">
-        <v>66.45</v>
+        <v>67.23</v>
       </c>
       <c r="Y10" s="1">
-        <v>69.45</v>
-      </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+        <v>58.61</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>58.75</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>72.62</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>101.99</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -1593,87 +1711,100 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN10" s="5">
+        <f t="shared" si="0"/>
+        <v>2131.2199999999998</v>
+      </c>
+      <c r="AO10">
+        <f>AN10-AN2</f>
+        <v>-310.16999999999962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>63.85</v>
+        <v>68.94</v>
       </c>
       <c r="C11" s="1">
-        <v>72.69</v>
+        <v>43.43</v>
       </c>
       <c r="D11" s="1">
-        <v>71.62</v>
+        <v>46.82</v>
       </c>
       <c r="E11" s="1">
-        <v>93.68</v>
+        <v>59.22</v>
       </c>
       <c r="F11" s="1">
-        <v>75.62</v>
+        <v>66.08</v>
       </c>
       <c r="G11" s="1">
-        <v>110.21</v>
+        <v>102.56</v>
       </c>
       <c r="H11" s="1">
-        <v>91.99</v>
+        <v>91.49</v>
       </c>
       <c r="I11" s="1">
-        <v>152.5</v>
+        <v>85.54</v>
       </c>
       <c r="J11" s="1">
-        <v>94.1</v>
+        <v>62.98</v>
       </c>
       <c r="K11" s="1">
-        <v>70.569999999999993</v>
+        <v>85.85</v>
       </c>
       <c r="L11" s="1">
-        <v>102.97</v>
+        <v>81.69</v>
       </c>
       <c r="M11" s="1">
-        <v>81.96</v>
+        <v>62.16</v>
       </c>
       <c r="N11" s="1">
-        <v>114.91</v>
+        <v>91.47</v>
       </c>
       <c r="O11" s="1">
-        <v>77.900000000000006</v>
+        <v>56.45</v>
       </c>
       <c r="P11" s="1">
-        <v>100</v>
+        <v>42.52</v>
       </c>
       <c r="Q11" s="1">
-        <v>63.57</v>
+        <v>55.78</v>
       </c>
       <c r="R11" s="1">
-        <v>42.61</v>
+        <v>53.11</v>
       </c>
       <c r="S11" s="1">
-        <v>93.1</v>
+        <v>100.67</v>
       </c>
       <c r="T11" s="1">
-        <v>89.05</v>
+        <v>79.61</v>
       </c>
       <c r="U11" s="1">
-        <v>86.06</v>
+        <v>91.61</v>
       </c>
       <c r="V11" s="1">
-        <v>180.01</v>
+        <v>169.87</v>
       </c>
       <c r="W11" s="1">
-        <v>65.09</v>
+        <v>88.54</v>
       </c>
       <c r="X11" s="1">
-        <v>110.47</v>
+        <v>91.8</v>
       </c>
       <c r="Y11" s="1">
-        <v>45.83</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+        <v>62.84</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>58.5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>78.13</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>68.92</v>
+      </c>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -1685,87 +1816,100 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN11" s="5">
+        <f t="shared" si="0"/>
+        <v>2046.58</v>
+      </c>
+      <c r="AO11">
+        <f>AN11-AN2</f>
+        <v>-394.80999999999949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>55.43</v>
+        <v>89.63</v>
       </c>
       <c r="C12" s="1">
-        <v>65.95</v>
+        <v>102.92</v>
       </c>
       <c r="D12" s="1">
-        <v>82.15</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="E12" s="1">
-        <v>72.08</v>
+        <v>132.21</v>
       </c>
       <c r="F12" s="1">
-        <v>70.930000000000007</v>
+        <v>85.18</v>
       </c>
       <c r="G12" s="1">
-        <v>65.06</v>
+        <v>82.41</v>
       </c>
       <c r="H12" s="1">
-        <v>74.69</v>
+        <v>89.74</v>
       </c>
       <c r="I12" s="1">
-        <v>57.09</v>
+        <v>95.19</v>
       </c>
       <c r="J12" s="1">
-        <v>66.27</v>
+        <v>80.63</v>
       </c>
       <c r="K12" s="1">
-        <v>55.27</v>
+        <v>29.96</v>
       </c>
       <c r="L12" s="1">
-        <v>65.010000000000005</v>
+        <v>97.47</v>
       </c>
       <c r="M12" s="1">
-        <v>61.18</v>
+        <v>65.36</v>
       </c>
       <c r="N12" s="1">
-        <v>25.07</v>
+        <v>86.21</v>
       </c>
       <c r="O12" s="1">
-        <v>39.450000000000003</v>
+        <v>16.5</v>
       </c>
       <c r="P12" s="1">
-        <v>36.799999999999997</v>
+        <v>105.5</v>
       </c>
       <c r="Q12" s="1">
-        <v>23.4</v>
+        <v>51.67</v>
       </c>
       <c r="R12" s="1">
-        <v>22.51</v>
+        <v>59.74</v>
       </c>
       <c r="S12" s="1">
-        <v>45.79</v>
+        <v>69.8</v>
       </c>
       <c r="T12" s="1">
-        <v>48.58</v>
+        <v>48.31</v>
       </c>
       <c r="U12" s="1">
-        <v>56.46</v>
+        <v>39.81</v>
       </c>
       <c r="V12" s="1">
-        <v>27.86</v>
+        <v>161.47</v>
       </c>
       <c r="W12" s="1">
-        <v>42</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="X12" s="1">
-        <v>31.14</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>40.6</v>
-      </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+        <v>63.31</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>46.15</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>50.9</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>25.45</v>
+      </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -1777,9 +1921,16 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN12" s="5">
+        <f t="shared" si="0"/>
+        <v>2001.2300000000005</v>
+      </c>
+      <c r="AO12">
+        <f>AN12-AN2</f>
+        <v>-440.15999999999894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1855,9 +2006,15 @@
       <c r="Y13" s="1">
         <v>19.41</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>52.82</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>43.07</v>
+      </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -1869,87 +2026,100 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN13" s="5">
+        <f t="shared" si="0"/>
+        <v>2015.38</v>
+      </c>
+      <c r="AO13">
+        <f>AN13-AN2</f>
+        <v>-426.00999999999931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>55.38</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>55.74</v>
+        <v>58.59</v>
       </c>
       <c r="D14" s="1">
-        <v>47.97</v>
+        <v>88.52</v>
       </c>
       <c r="E14" s="1">
-        <v>84.66</v>
+        <v>114.61</v>
       </c>
       <c r="F14" s="1">
-        <v>96.86</v>
+        <v>80.83</v>
       </c>
       <c r="G14" s="1">
-        <v>79.5</v>
+        <v>82.56</v>
       </c>
       <c r="H14" s="1">
-        <v>60.03</v>
+        <v>89.95</v>
       </c>
       <c r="I14" s="1">
-        <v>104.98</v>
+        <v>106</v>
       </c>
       <c r="J14" s="1">
-        <v>67.349999999999994</v>
+        <v>54.27</v>
       </c>
       <c r="K14" s="1">
-        <v>68.31</v>
+        <v>90.64</v>
       </c>
       <c r="L14" s="1">
-        <v>60.42</v>
+        <v>89.77</v>
       </c>
       <c r="M14" s="1">
-        <v>73.709999999999994</v>
+        <v>61.26</v>
       </c>
       <c r="N14" s="1">
-        <v>55.09</v>
+        <v>80.97</v>
       </c>
       <c r="O14" s="1">
-        <v>37.65</v>
+        <v>53.7</v>
       </c>
       <c r="P14" s="1">
-        <v>62.42</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="Q14" s="1">
-        <v>51.5</v>
+        <v>53.65</v>
       </c>
       <c r="R14" s="1">
-        <v>46.3</v>
+        <v>64.25</v>
       </c>
       <c r="S14" s="1">
-        <v>75.900000000000006</v>
+        <v>82.42</v>
       </c>
       <c r="T14" s="1">
-        <v>87.36</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="U14" s="1">
-        <v>82.28</v>
+        <v>68.36</v>
       </c>
       <c r="V14" s="1">
-        <v>160.36000000000001</v>
+        <v>124.21</v>
       </c>
       <c r="W14" s="1">
-        <v>50.36</v>
+        <v>95.61</v>
       </c>
       <c r="X14" s="1">
-        <v>61.6</v>
+        <v>91.1</v>
       </c>
       <c r="Y14" s="1">
-        <v>46.11</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+        <v>39.06</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>58.25</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>80.84</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>67.08</v>
+      </c>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -1961,87 +2131,100 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN14" s="5">
+        <f t="shared" si="0"/>
+        <v>2030.7199999999998</v>
+      </c>
+      <c r="AO14">
+        <f>AN14-AN2</f>
+        <v>-410.66999999999962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
-        <v>60.59</v>
+        <v>56.11</v>
       </c>
       <c r="C15" s="1">
-        <v>82.62</v>
+        <v>91.42</v>
       </c>
       <c r="D15" s="1">
-        <v>82.77</v>
+        <v>82.12</v>
       </c>
       <c r="E15" s="1">
-        <v>67.02</v>
+        <v>70.73</v>
       </c>
       <c r="F15" s="1">
-        <v>56.02</v>
+        <v>39.99</v>
       </c>
       <c r="G15" s="1">
-        <v>55.05</v>
+        <v>104.45</v>
       </c>
       <c r="H15" s="1">
-        <v>92.96</v>
+        <v>105.44</v>
       </c>
       <c r="I15" s="1">
-        <v>90</v>
+        <v>52.03</v>
       </c>
       <c r="J15" s="1">
-        <v>40.369999999999997</v>
+        <v>45.67</v>
       </c>
       <c r="K15" s="1">
-        <v>16.149999999999999</v>
+        <v>67.87</v>
       </c>
       <c r="L15" s="1">
-        <v>87.25</v>
+        <v>65.69</v>
       </c>
       <c r="M15" s="1">
-        <v>38.31</v>
+        <v>10.87</v>
       </c>
       <c r="N15" s="1">
-        <v>61.3</v>
+        <v>94.21</v>
       </c>
       <c r="O15" s="1">
-        <v>31.7</v>
+        <v>57.4</v>
       </c>
       <c r="P15" s="1">
-        <v>49.9</v>
+        <v>97.2</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.399999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="R15" s="1">
-        <v>60.3</v>
+        <v>84.91</v>
       </c>
       <c r="S15" s="1">
-        <v>43.2</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="T15" s="1">
-        <v>33.21</v>
+        <v>63.5</v>
       </c>
       <c r="U15" s="1">
-        <v>23.7</v>
+        <v>76.86</v>
       </c>
       <c r="V15" s="1">
-        <v>63.35</v>
+        <v>172.91</v>
       </c>
       <c r="W15" s="1">
-        <v>40.770000000000003</v>
+        <v>56.26</v>
       </c>
       <c r="X15" s="1">
-        <v>23.69</v>
+        <v>65.02</v>
       </c>
       <c r="Y15" s="1">
-        <v>41.54</v>
-      </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
+        <v>80.86</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>89.94</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>86.92</v>
+      </c>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -2053,87 +2236,100 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN15" s="5">
+        <f t="shared" si="0"/>
+        <v>2000.31</v>
+      </c>
+      <c r="AO15">
+        <f>AN15-AN2</f>
+        <v>-441.07999999999947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>89.63</v>
+        <v>63.55</v>
       </c>
       <c r="C16" s="1">
-        <v>102.92</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="D16" s="1">
-        <v>73.319999999999993</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E16" s="1">
-        <v>132.21</v>
+        <v>82.81</v>
       </c>
       <c r="F16" s="1">
-        <v>85.18</v>
+        <v>68.92</v>
       </c>
       <c r="G16" s="1">
-        <v>82.41</v>
+        <v>92.16</v>
       </c>
       <c r="H16" s="1">
-        <v>89.74</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="I16" s="1">
-        <v>95.19</v>
+        <v>95.55</v>
       </c>
       <c r="J16" s="1">
-        <v>80.63</v>
+        <v>31.22</v>
       </c>
       <c r="K16" s="1">
-        <v>29.96</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L16" s="1">
-        <v>97.47</v>
+        <v>115.42</v>
       </c>
       <c r="M16" s="1">
-        <v>65.36</v>
+        <v>7.8</v>
       </c>
       <c r="N16" s="1">
-        <v>86.21</v>
+        <v>96.71</v>
       </c>
       <c r="O16" s="1">
-        <v>16.5</v>
+        <v>73.5</v>
       </c>
       <c r="P16" s="1">
-        <v>105.5</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="Q16" s="1">
-        <v>51.67</v>
+        <v>81.88</v>
       </c>
       <c r="R16" s="1">
-        <v>59.74</v>
+        <v>62.92</v>
       </c>
       <c r="S16" s="1">
-        <v>69.8</v>
+        <v>66.17</v>
       </c>
       <c r="T16" s="1">
-        <v>48.31</v>
+        <v>62.8</v>
       </c>
       <c r="U16" s="1">
-        <v>39.81</v>
+        <v>65.55</v>
       </c>
       <c r="V16" s="1">
-        <v>161.47</v>
+        <v>164.56</v>
       </c>
       <c r="W16" s="1">
-        <v>73.489999999999995</v>
+        <v>80.16</v>
       </c>
       <c r="X16" s="1">
-        <v>78.900000000000006</v>
+        <v>59.45</v>
       </c>
       <c r="Y16" s="1">
-        <v>63.31</v>
-      </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+        <v>43.35</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>51.65</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>91.34</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>61.38</v>
+      </c>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -2145,87 +2341,100 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
+      <c r="AN16" s="5">
+        <f t="shared" si="0"/>
+        <v>1957.9600000000003</v>
+      </c>
+      <c r="AO16">
+        <f>AN16-AN2</f>
+        <v>-483.42999999999915</v>
+      </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>70.55</v>
+        <v>55.38</v>
       </c>
       <c r="C17" s="1">
-        <v>106.22</v>
+        <v>55.74</v>
       </c>
       <c r="D17" s="1">
-        <v>58.2</v>
+        <v>47.97</v>
       </c>
       <c r="E17" s="1">
-        <v>101.96</v>
+        <v>84.66</v>
       </c>
       <c r="F17" s="1">
-        <v>91.52</v>
+        <v>96.86</v>
       </c>
       <c r="G17" s="1">
-        <v>97.81</v>
+        <v>79.5</v>
       </c>
       <c r="H17" s="1">
-        <v>104.24</v>
+        <v>60.03</v>
       </c>
       <c r="I17" s="1">
-        <v>145.44999999999999</v>
+        <v>104.98</v>
       </c>
       <c r="J17" s="1">
-        <v>66.52</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="K17" s="1">
-        <v>49.1</v>
+        <v>68.31</v>
       </c>
       <c r="L17" s="1">
-        <v>81.87</v>
+        <v>60.42</v>
       </c>
       <c r="M17" s="1">
-        <v>63.41</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="N17" s="1">
-        <v>107.41</v>
+        <v>55.09</v>
       </c>
       <c r="O17" s="1">
-        <v>63.65</v>
+        <v>37.65</v>
       </c>
       <c r="P17" s="1">
-        <v>91.8</v>
+        <v>62.42</v>
       </c>
       <c r="Q17" s="1">
-        <v>73.28</v>
+        <v>51.5</v>
       </c>
       <c r="R17" s="1">
-        <v>65.31</v>
+        <v>46.3</v>
       </c>
       <c r="S17" s="1">
-        <v>68.67</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="T17" s="1">
-        <v>75.45</v>
+        <v>87.36</v>
       </c>
       <c r="U17" s="1">
-        <v>75.86</v>
+        <v>82.28</v>
       </c>
       <c r="V17" s="1">
-        <v>172.91</v>
+        <v>160.36000000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>86.11</v>
+        <v>50.36</v>
       </c>
       <c r="X17" s="1">
-        <v>91.05</v>
+        <v>61.6</v>
       </c>
       <c r="Y17" s="1">
-        <v>71.58</v>
-      </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
+        <v>46.11</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>48.45</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>39.07</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>27.02</v>
+      </c>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -2237,87 +2446,96 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
+      <c r="AN17" s="5">
+        <f t="shared" si="0"/>
+        <v>1786.3799999999997</v>
+      </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
-        <v>70.25</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>66.69</v>
+        <v>48.37</v>
       </c>
       <c r="D18" s="1">
-        <v>64.819999999999993</v>
+        <v>50.22</v>
       </c>
       <c r="E18" s="1">
-        <v>98.8</v>
+        <v>63.98</v>
       </c>
       <c r="F18" s="1">
-        <v>77.53</v>
+        <v>60.78</v>
       </c>
       <c r="G18" s="1">
-        <v>84.25</v>
+        <v>80.78</v>
       </c>
       <c r="H18" s="1">
-        <v>89.49</v>
+        <v>84.36</v>
       </c>
       <c r="I18" s="1">
-        <v>92.21</v>
+        <v>113.25</v>
       </c>
       <c r="J18" s="1">
-        <v>86.53</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K18" s="1">
-        <v>63.95</v>
+        <v>80.12</v>
       </c>
       <c r="L18" s="1">
-        <v>99.46</v>
+        <v>69.31</v>
       </c>
       <c r="M18" s="1">
-        <v>52.56</v>
+        <v>51.66</v>
       </c>
       <c r="N18" s="1">
-        <v>103.11</v>
+        <v>94.3</v>
       </c>
       <c r="O18" s="1">
-        <v>53.7</v>
+        <v>59.9</v>
       </c>
       <c r="P18" s="1">
-        <v>90.49</v>
+        <v>90.3</v>
       </c>
       <c r="Q18" s="1">
-        <v>76.58</v>
+        <v>61.17</v>
       </c>
       <c r="R18" s="1">
-        <v>55.85</v>
+        <v>69.209999999999994</v>
       </c>
       <c r="S18" s="1">
-        <v>96.68</v>
+        <v>93.97</v>
       </c>
       <c r="T18" s="1">
-        <v>66.31</v>
+        <v>60.75</v>
       </c>
       <c r="U18" s="1">
-        <v>68.650000000000006</v>
+        <v>44.15</v>
       </c>
       <c r="V18" s="1">
-        <v>154.22</v>
+        <v>162.46</v>
       </c>
       <c r="W18" s="1">
-        <v>59.89</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>67.23</v>
+        <v>59.07</v>
       </c>
       <c r="Y18" s="1">
-        <v>58.61</v>
-      </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
+        <v>49.08</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>53.14</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>37.19</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>30.75</v>
+      </c>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -2329,87 +2547,96 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
+      <c r="AN18" s="5">
+        <f t="shared" si="0"/>
+        <v>1780.4800000000002</v>
+      </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1">
-        <v>63.55</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="C19" s="1">
-        <v>79.790000000000006</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="D19" s="1">
-        <v>71.900000000000006</v>
+        <v>55.02</v>
       </c>
       <c r="E19" s="1">
-        <v>82.81</v>
+        <v>69.28</v>
       </c>
       <c r="F19" s="1">
-        <v>68.92</v>
+        <v>83.93</v>
       </c>
       <c r="G19" s="1">
-        <v>92.16</v>
+        <v>97.23</v>
       </c>
       <c r="H19" s="1">
-        <v>81.540000000000006</v>
+        <v>89.56</v>
       </c>
       <c r="I19" s="1">
-        <v>95.55</v>
+        <v>61.49</v>
       </c>
       <c r="J19" s="1">
-        <v>31.22</v>
+        <v>30.83</v>
       </c>
       <c r="K19" s="1">
-        <v>36.700000000000003</v>
+        <v>48.52</v>
       </c>
       <c r="L19" s="1">
-        <v>115.42</v>
+        <v>61.75</v>
       </c>
       <c r="M19" s="1">
-        <v>7.8</v>
+        <v>29.21</v>
       </c>
       <c r="N19" s="1">
-        <v>96.71</v>
+        <v>27.35</v>
       </c>
       <c r="O19" s="1">
-        <v>73.5</v>
+        <v>21.6</v>
       </c>
       <c r="P19" s="1">
-        <v>69.180000000000007</v>
+        <v>53.7</v>
       </c>
       <c r="Q19" s="1">
-        <v>81.88</v>
+        <v>35.9</v>
       </c>
       <c r="R19" s="1">
-        <v>62.92</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="S19" s="1">
-        <v>66.17</v>
+        <v>49.28</v>
       </c>
       <c r="T19" s="1">
-        <v>62.8</v>
+        <v>41.07</v>
       </c>
       <c r="U19" s="1">
-        <v>65.55</v>
+        <v>41.8</v>
       </c>
       <c r="V19" s="1">
-        <v>164.56</v>
+        <v>74.61</v>
       </c>
       <c r="W19" s="1">
-        <v>80.16</v>
+        <v>43.25</v>
       </c>
       <c r="X19" s="1">
-        <v>59.45</v>
+        <v>84.54</v>
       </c>
       <c r="Y19" s="1">
-        <v>43.35</v>
-      </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
+        <v>46.54</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>42.71</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>102.9</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>70.099999999999994</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -2421,87 +2648,96 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
+      <c r="AN19" s="5">
+        <f t="shared" si="0"/>
+        <v>1575.21</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>60.59</v>
       </c>
       <c r="C20" s="1">
-        <v>48.37</v>
+        <v>82.62</v>
       </c>
       <c r="D20" s="1">
-        <v>50.22</v>
+        <v>82.77</v>
       </c>
       <c r="E20" s="1">
-        <v>63.98</v>
+        <v>67.02</v>
       </c>
       <c r="F20" s="1">
-        <v>60.78</v>
+        <v>56.02</v>
       </c>
       <c r="G20" s="1">
-        <v>80.78</v>
+        <v>55.05</v>
       </c>
       <c r="H20" s="1">
-        <v>84.36</v>
+        <v>92.96</v>
       </c>
       <c r="I20" s="1">
-        <v>113.25</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1">
-        <v>34.950000000000003</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="K20" s="1">
-        <v>80.12</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="L20" s="1">
-        <v>69.31</v>
+        <v>87.25</v>
       </c>
       <c r="M20" s="1">
-        <v>51.66</v>
+        <v>38.31</v>
       </c>
       <c r="N20" s="1">
-        <v>94.3</v>
+        <v>61.3</v>
       </c>
       <c r="O20" s="1">
-        <v>59.9</v>
+        <v>31.7</v>
       </c>
       <c r="P20" s="1">
-        <v>90.3</v>
+        <v>49.9</v>
       </c>
       <c r="Q20" s="1">
-        <v>61.17</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>69.209999999999994</v>
+        <v>60.3</v>
       </c>
       <c r="S20" s="1">
-        <v>93.97</v>
+        <v>43.2</v>
       </c>
       <c r="T20" s="1">
-        <v>60.75</v>
+        <v>33.21</v>
       </c>
       <c r="U20" s="1">
-        <v>44.15</v>
+        <v>23.7</v>
       </c>
       <c r="V20" s="1">
-        <v>162.46</v>
+        <v>63.35</v>
       </c>
       <c r="W20" s="1">
-        <v>77.260000000000005</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>59.07</v>
+        <v>23.69</v>
       </c>
       <c r="Y20" s="1">
-        <v>49.08</v>
-      </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
+        <v>41.54</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>30.01</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>20.55</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>38.56</v>
+      </c>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -2513,87 +2749,96 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
+      <c r="AN20" s="5">
+        <f t="shared" si="0"/>
+        <v>1351.2899999999997</v>
+      </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>77.650000000000006</v>
+        <v>55.43</v>
       </c>
       <c r="C21" s="1">
-        <v>66.790000000000006</v>
+        <v>65.95</v>
       </c>
       <c r="D21" s="1">
-        <v>55.02</v>
+        <v>82.15</v>
       </c>
       <c r="E21" s="1">
-        <v>69.28</v>
+        <v>72.08</v>
       </c>
       <c r="F21" s="1">
-        <v>83.93</v>
+        <v>70.930000000000007</v>
       </c>
       <c r="G21" s="1">
-        <v>97.23</v>
+        <v>65.06</v>
       </c>
       <c r="H21" s="1">
-        <v>89.56</v>
+        <v>74.69</v>
       </c>
       <c r="I21" s="1">
-        <v>61.49</v>
+        <v>57.09</v>
       </c>
       <c r="J21" s="1">
-        <v>30.83</v>
+        <v>66.27</v>
       </c>
       <c r="K21" s="1">
-        <v>48.52</v>
+        <v>55.27</v>
       </c>
       <c r="L21" s="1">
-        <v>61.75</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="M21" s="1">
-        <v>29.21</v>
+        <v>61.18</v>
       </c>
       <c r="N21" s="1">
-        <v>27.35</v>
+        <v>25.07</v>
       </c>
       <c r="O21" s="1">
-        <v>21.6</v>
+        <v>39.450000000000003</v>
       </c>
       <c r="P21" s="1">
-        <v>53.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>35.9</v>
+        <v>23.4</v>
       </c>
       <c r="R21" s="1">
-        <v>68.599999999999994</v>
+        <v>22.51</v>
       </c>
       <c r="S21" s="1">
-        <v>49.28</v>
+        <v>45.79</v>
       </c>
       <c r="T21" s="1">
-        <v>41.07</v>
+        <v>48.58</v>
       </c>
       <c r="U21" s="1">
-        <v>41.8</v>
+        <v>56.46</v>
       </c>
       <c r="V21" s="1">
-        <v>74.61</v>
+        <v>27.86</v>
       </c>
       <c r="W21" s="1">
-        <v>43.25</v>
+        <v>42</v>
       </c>
       <c r="X21" s="1">
-        <v>84.54</v>
+        <v>31.14</v>
       </c>
       <c r="Y21" s="1">
-        <v>46.54</v>
-      </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+        <v>40.6</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>35.74</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>28.98</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>26.09</v>
+      </c>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -2605,11 +2850,20 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
+      <c r="AN21" s="5">
+        <f t="shared" si="0"/>
+        <v>1321.5799999999997</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN1" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AN21">
+      <sortCondition descending="1" ref="AN1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2652,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC612CD-436A-480A-ACD2-020A54CE60BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921FA8B-1612-41EA-AF85-3DAB6A6924BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
@@ -641,9 +641,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
@@ -655,7 +655,7 @@
     <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>19</v>
@@ -775,7 +775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -871,16 +871,9 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="5">
-        <f t="shared" ref="AN2:AN21" si="0">SUM(B2:AM2)</f>
-        <v>2441.3899999999994</v>
-      </c>
-      <c r="AO2">
-        <f>AN2-AN2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN2" s="5"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -976,16 +969,9 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="5">
-        <f t="shared" si="0"/>
-        <v>2419.25</v>
-      </c>
-      <c r="AO3">
-        <f>AN3-AN2</f>
-        <v>-22.139999999999418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN3" s="5"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1081,16 +1067,9 @@
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-      <c r="AN4" s="5">
-        <f t="shared" si="0"/>
-        <v>2363.6299999999997</v>
-      </c>
-      <c r="AO4">
-        <f>AN4-AN2</f>
-        <v>-77.759999999999764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN4" s="5"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1186,16 +1165,9 @@
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="5">
-        <f t="shared" si="0"/>
-        <v>2341.1599999999994</v>
-      </c>
-      <c r="AO5">
-        <f>AN5-AN2</f>
-        <v>-100.23000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN5" s="5"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1291,16 +1263,9 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-      <c r="AN6" s="5">
-        <f t="shared" si="0"/>
-        <v>2278.5099999999998</v>
-      </c>
-      <c r="AO6">
-        <f>AN6-AN2</f>
-        <v>-162.87999999999965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1396,16 +1361,9 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="5">
-        <f t="shared" si="0"/>
-        <v>2287.7400000000002</v>
-      </c>
-      <c r="AO7">
-        <f>AN7-AN2</f>
-        <v>-153.64999999999918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN7" s="5"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1501,16 +1459,9 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
-      <c r="AN8" s="5">
-        <f t="shared" si="0"/>
-        <v>2288.21</v>
-      </c>
-      <c r="AO8">
-        <f>AN8-AN2</f>
-        <v>-153.17999999999938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN8" s="5"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1606,16 +1557,9 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="5">
-        <f t="shared" si="0"/>
-        <v>2201.7199999999998</v>
-      </c>
-      <c r="AO9">
-        <f>AN9-AN2</f>
-        <v>-239.66999999999962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN9" s="5"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1711,16 +1655,9 @@
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
-      <c r="AN10" s="5">
-        <f t="shared" si="0"/>
-        <v>2131.2199999999998</v>
-      </c>
-      <c r="AO10">
-        <f>AN10-AN2</f>
-        <v>-310.16999999999962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN10" s="5"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1816,16 +1753,9 @@
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
-      <c r="AN11" s="5">
-        <f t="shared" si="0"/>
-        <v>2046.58</v>
-      </c>
-      <c r="AO11">
-        <f>AN11-AN2</f>
-        <v>-394.80999999999949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN11" s="5"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1921,16 +1851,9 @@
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="5">
-        <f t="shared" si="0"/>
-        <v>2001.2300000000005</v>
-      </c>
-      <c r="AO12">
-        <f>AN12-AN2</f>
-        <v>-440.15999999999894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN12" s="5"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2026,16 +1949,9 @@
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
-      <c r="AN13" s="5">
-        <f t="shared" si="0"/>
-        <v>2015.38</v>
-      </c>
-      <c r="AO13">
-        <f>AN13-AN2</f>
-        <v>-426.00999999999931</v>
-      </c>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN13" s="5"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2131,16 +2047,9 @@
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="5">
-        <f t="shared" si="0"/>
-        <v>2030.7199999999998</v>
-      </c>
-      <c r="AO14">
-        <f>AN14-AN2</f>
-        <v>-410.66999999999962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN14" s="5"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2236,16 +2145,9 @@
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
-      <c r="AN15" s="5">
-        <f t="shared" si="0"/>
-        <v>2000.31</v>
-      </c>
-      <c r="AO15">
-        <f>AN15-AN2</f>
-        <v>-441.07999999999947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AN15" s="5"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -2341,14 +2243,7 @@
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
-      <c r="AN16" s="5">
-        <f t="shared" si="0"/>
-        <v>1957.9600000000003</v>
-      </c>
-      <c r="AO16">
-        <f>AN16-AN2</f>
-        <v>-483.42999999999915</v>
-      </c>
+      <c r="AN16" s="5"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2446,10 +2341,7 @@
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
-      <c r="AN17" s="5">
-        <f t="shared" si="0"/>
-        <v>1786.3799999999997</v>
-      </c>
+      <c r="AN17" s="5"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2547,10 +2439,7 @@
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
-      <c r="AN18" s="5">
-        <f t="shared" si="0"/>
-        <v>1780.4800000000002</v>
-      </c>
+      <c r="AN18" s="5"/>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -2648,10 +2537,7 @@
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
-      <c r="AN19" s="5">
-        <f t="shared" si="0"/>
-        <v>1575.21</v>
-      </c>
+      <c r="AN19" s="5"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -2749,10 +2635,7 @@
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
-      <c r="AN20" s="5">
-        <f t="shared" si="0"/>
-        <v>1351.2899999999997</v>
-      </c>
+      <c r="AN20" s="5"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -2850,10 +2733,7 @@
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="5">
-        <f t="shared" si="0"/>
-        <v>1321.5799999999997</v>
-      </c>
+      <c r="AN21" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AN1" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7921FA8B-1612-41EA-AF85-3DAB6A6924BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70FFFB-6708-4C00-80F6-91070D6A0BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
@@ -300,13 +300,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924956FD-A141-466F-AB6A-DDD5D2DAA86E}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF28" sqref="AF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +653,7 @@
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="12.5703125" hidden="1" customWidth="1"/>
     <col min="19" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -860,9 +861,15 @@
       <c r="AB2" s="1">
         <v>91.47</v>
       </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="AC2" s="1">
+        <v>92.84</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>108.53</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>23.99</v>
+      </c>
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
@@ -958,9 +965,15 @@
       <c r="AB3" s="1">
         <v>99.07</v>
       </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AC3" s="1">
+        <v>116.54</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>108.58</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>35.39</v>
+      </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1056,9 +1069,15 @@
       <c r="AB4" s="1">
         <v>105.97</v>
       </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="AC4" s="1">
+        <v>127.14</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>112.53</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>64.19</v>
+      </c>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
@@ -1154,9 +1173,15 @@
       <c r="AB5" s="1">
         <v>114.87</v>
       </c>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="AC5" s="1">
+        <v>133.63999999999999</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>122.58</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>55.79</v>
+      </c>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
@@ -1252,9 +1277,15 @@
       <c r="AB6" s="1">
         <v>64.97</v>
       </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="AC6" s="1">
+        <v>134.94</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>37.590000000000003</v>
+      </c>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
@@ -1350,9 +1381,15 @@
       <c r="AB7" s="1">
         <v>75.87</v>
       </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="AC7" s="1">
+        <v>90.96</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>56</v>
+      </c>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
@@ -1448,9 +1485,15 @@
       <c r="AB8" s="1">
         <v>96.45</v>
       </c>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="AC8" s="1">
+        <v>131.04</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>109.43</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>57.3</v>
+      </c>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
@@ -1546,9 +1589,15 @@
       <c r="AB9" s="1">
         <v>49.97</v>
       </c>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="AC9" s="1">
+        <v>133.13999999999999</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>92.88</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>54.79</v>
+      </c>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
@@ -1644,9 +1693,15 @@
       <c r="AB10" s="1">
         <v>101.99</v>
       </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="AC10" s="1">
+        <v>107.06</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>88.43</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>56.04</v>
+      </c>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
@@ -1742,9 +1797,15 @@
       <c r="AB11" s="1">
         <v>68.92</v>
       </c>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
+      <c r="AC11" s="1">
+        <v>132.86000000000001</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>122.6</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>27.69</v>
+      </c>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
@@ -1840,9 +1901,15 @@
       <c r="AB12" s="1">
         <v>25.45</v>
       </c>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
+      <c r="AC12" s="1">
+        <v>85.18</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>93.04</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>31.93</v>
+      </c>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
@@ -1938,9 +2005,15 @@
       <c r="AB13" s="1">
         <v>43.07</v>
       </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
+      <c r="AC13" s="1">
+        <v>92.55</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>77.06</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>28.69</v>
+      </c>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
@@ -2036,9 +2109,15 @@
       <c r="AB14" s="1">
         <v>67.08</v>
       </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
+      <c r="AC14" s="1">
+        <v>95.44</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>41.59</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>41.14</v>
+      </c>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
@@ -2134,9 +2213,15 @@
       <c r="AB15" s="1">
         <v>86.92</v>
       </c>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
+      <c r="AC15" s="1">
+        <v>109.44</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>91.43</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>37.44</v>
+      </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
@@ -2232,9 +2317,15 @@
       <c r="AB16" s="1">
         <v>61.38</v>
       </c>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
+      <c r="AC16" s="1">
+        <v>111.94</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>115.69</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>43.14</v>
+      </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
@@ -2330,9 +2421,15 @@
       <c r="AB17" s="1">
         <v>27.02</v>
       </c>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
+      <c r="AC17" s="1">
+        <v>54.65</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>47.71</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>49.69</v>
+      </c>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
@@ -2428,9 +2525,15 @@
       <c r="AB18" s="1">
         <v>30.75</v>
       </c>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
+      <c r="AC18" s="1">
+        <v>49.98</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>60.15</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>19.25</v>
+      </c>
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
@@ -2526,9 +2629,15 @@
       <c r="AB19" s="1">
         <v>70.099999999999994</v>
       </c>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
+      <c r="AC19" s="1">
+        <v>87.38</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>50.61</v>
+      </c>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
@@ -2624,9 +2733,15 @@
       <c r="AB20" s="1">
         <v>38.56</v>
       </c>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
+      <c r="AC20" s="1">
+        <v>26.55</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>25.01</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>57.27</v>
+      </c>
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
@@ -2722,9 +2837,15 @@
       <c r="AB21" s="1">
         <v>26.09</v>
       </c>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
+      <c r="AC21" s="1">
+        <v>31.44</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>14.09</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>40.159999999999997</v>
+      </c>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D70FFFB-6708-4C00-80F6-91070D6A0BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFEECA8-BD0A-45CC-A028-557B8A8C637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
@@ -300,14 +300,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +644,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,100 +777,104 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>62.53</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="C2" s="1">
-        <v>89.88</v>
+        <v>92.79</v>
       </c>
       <c r="D2" s="1">
-        <v>74.52</v>
+        <v>71.02</v>
       </c>
       <c r="E2" s="1">
-        <v>121.4</v>
+        <v>99.12</v>
       </c>
       <c r="F2" s="1">
-        <v>68.13</v>
+        <v>72.88</v>
       </c>
       <c r="G2" s="1">
-        <v>76.11</v>
+        <v>105.36</v>
       </c>
       <c r="H2" s="1">
-        <v>95.55</v>
+        <v>117.59</v>
       </c>
       <c r="I2" s="1">
-        <v>133.03</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1">
-        <v>61.62</v>
+        <v>79.92</v>
       </c>
       <c r="K2" s="1">
-        <v>73.17</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="L2" s="1">
-        <v>92.47</v>
+        <v>126.77</v>
       </c>
       <c r="M2" s="1">
-        <v>75.17</v>
+        <v>68.36</v>
       </c>
       <c r="N2" s="1">
-        <v>94.27</v>
+        <v>117.97</v>
       </c>
       <c r="O2" s="1">
-        <v>71.45</v>
+        <v>66.8</v>
       </c>
       <c r="P2" s="1">
-        <v>115.1</v>
+        <v>107.8</v>
       </c>
       <c r="Q2" s="1">
-        <v>76.599999999999994</v>
+        <v>70.67</v>
       </c>
       <c r="R2" s="1">
-        <v>66.75</v>
+        <v>56.81</v>
       </c>
       <c r="S2" s="1">
-        <v>94.77</v>
+        <v>93.47</v>
       </c>
       <c r="T2" s="1">
-        <v>68.599999999999994</v>
+        <v>62.55</v>
       </c>
       <c r="U2" s="1">
-        <v>82.16</v>
+        <v>75.38</v>
       </c>
       <c r="V2" s="1">
-        <v>199.71</v>
+        <v>193.46</v>
       </c>
       <c r="W2" s="1">
-        <v>91.96</v>
+        <v>77.56</v>
       </c>
       <c r="X2" s="1">
-        <v>106.5</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="1">
-        <v>85.18</v>
+        <v>71.28</v>
       </c>
       <c r="Z2" s="1">
-        <v>79.349999999999994</v>
+        <v>53.85</v>
       </c>
       <c r="AA2" s="1">
-        <v>93.94</v>
+        <v>92.44</v>
       </c>
       <c r="AB2" s="1">
-        <v>91.47</v>
+        <v>99.07</v>
       </c>
       <c r="AC2" s="1">
-        <v>92.84</v>
+        <v>116.54</v>
       </c>
       <c r="AD2" s="1">
-        <v>108.53</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>23.99</v>
-      </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
+        <v>108.58</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>35.39</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>90.47</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>124.84</v>
+      </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -882,100 +885,104 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
-        <v>73.260000000000005</v>
+        <v>62.53</v>
       </c>
       <c r="C3" s="1">
-        <v>92.79</v>
+        <v>89.88</v>
       </c>
       <c r="D3" s="1">
-        <v>71.02</v>
+        <v>74.52</v>
       </c>
       <c r="E3" s="1">
-        <v>99.12</v>
+        <v>121.4</v>
       </c>
       <c r="F3" s="1">
-        <v>72.88</v>
+        <v>68.13</v>
       </c>
       <c r="G3" s="1">
-        <v>105.36</v>
+        <v>76.11</v>
       </c>
       <c r="H3" s="1">
-        <v>117.59</v>
+        <v>95.55</v>
       </c>
       <c r="I3" s="1">
-        <v>110</v>
+        <v>133.03</v>
       </c>
       <c r="J3" s="1">
-        <v>79.92</v>
+        <v>61.62</v>
       </c>
       <c r="K3" s="1">
-        <v>65.069999999999993</v>
+        <v>73.17</v>
       </c>
       <c r="L3" s="1">
-        <v>126.77</v>
+        <v>92.47</v>
       </c>
       <c r="M3" s="1">
-        <v>68.36</v>
+        <v>75.17</v>
       </c>
       <c r="N3" s="1">
-        <v>117.97</v>
+        <v>94.27</v>
       </c>
       <c r="O3" s="1">
-        <v>66.8</v>
+        <v>71.45</v>
       </c>
       <c r="P3" s="1">
-        <v>107.8</v>
+        <v>115.1</v>
       </c>
       <c r="Q3" s="1">
-        <v>70.67</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="R3" s="1">
-        <v>56.81</v>
+        <v>66.75</v>
       </c>
       <c r="S3" s="1">
-        <v>93.47</v>
+        <v>94.77</v>
       </c>
       <c r="T3" s="1">
-        <v>62.55</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="U3" s="1">
-        <v>75.38</v>
+        <v>82.16</v>
       </c>
       <c r="V3" s="1">
-        <v>193.46</v>
+        <v>199.71</v>
       </c>
       <c r="W3" s="1">
-        <v>77.56</v>
+        <v>91.96</v>
       </c>
       <c r="X3" s="1">
-        <v>98</v>
+        <v>106.5</v>
       </c>
       <c r="Y3" s="1">
-        <v>71.28</v>
+        <v>85.18</v>
       </c>
       <c r="Z3" s="1">
-        <v>53.85</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="AA3" s="1">
-        <v>92.44</v>
+        <v>93.94</v>
       </c>
       <c r="AB3" s="1">
-        <v>99.07</v>
+        <v>91.47</v>
       </c>
       <c r="AC3" s="1">
-        <v>116.54</v>
+        <v>92.84</v>
       </c>
       <c r="AD3" s="1">
-        <v>108.58</v>
+        <v>108.53</v>
       </c>
       <c r="AE3" s="1">
-        <v>35.39</v>
-      </c>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
+        <v>23.99</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>96.17</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>98.94</v>
+      </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
@@ -1078,8 +1085,12 @@
       <c r="AE4" s="1">
         <v>64.19</v>
       </c>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AF4" s="1">
+        <v>88.52</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>103.54</v>
+      </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -1182,8 +1193,12 @@
       <c r="AE5" s="1">
         <v>55.79</v>
       </c>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AF5" s="1">
+        <v>84.12</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>78.290000000000006</v>
+      </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -1286,8 +1301,12 @@
       <c r="AE6" s="1">
         <v>37.590000000000003</v>
       </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AF6" s="1">
+        <v>84.52</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>106.14</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -1298,100 +1317,104 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>70.55</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C7" s="1">
-        <v>106.22</v>
+        <v>55.42</v>
       </c>
       <c r="D7" s="1">
-        <v>58.2</v>
+        <v>73.17</v>
       </c>
       <c r="E7" s="1">
-        <v>101.96</v>
+        <v>91.51</v>
       </c>
       <c r="F7" s="1">
-        <v>91.52</v>
+        <v>90.61</v>
       </c>
       <c r="G7" s="1">
-        <v>97.81</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="H7" s="1">
-        <v>104.24</v>
+        <v>76.44</v>
       </c>
       <c r="I7" s="1">
-        <v>145.44999999999999</v>
+        <v>108.89</v>
       </c>
       <c r="J7" s="1">
-        <v>66.52</v>
+        <v>84.37</v>
       </c>
       <c r="K7" s="1">
-        <v>49.1</v>
+        <v>76.77</v>
       </c>
       <c r="L7" s="1">
-        <v>81.87</v>
+        <v>102.35</v>
       </c>
       <c r="M7" s="1">
-        <v>63.41</v>
+        <v>61.14</v>
       </c>
       <c r="N7" s="1">
-        <v>107.41</v>
+        <v>122.04</v>
       </c>
       <c r="O7" s="1">
-        <v>63.65</v>
+        <v>68.7</v>
       </c>
       <c r="P7" s="1">
-        <v>91.8</v>
+        <v>107.1</v>
       </c>
       <c r="Q7" s="1">
-        <v>73.28</v>
+        <v>59.7</v>
       </c>
       <c r="R7" s="1">
-        <v>65.31</v>
+        <v>41.16</v>
       </c>
       <c r="S7" s="1">
-        <v>68.67</v>
+        <v>114.9</v>
       </c>
       <c r="T7" s="1">
-        <v>75.45</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="U7" s="1">
-        <v>75.86</v>
+        <v>68.56</v>
       </c>
       <c r="V7" s="1">
-        <v>172.91</v>
+        <v>168.76</v>
       </c>
       <c r="W7" s="1">
-        <v>86.11</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="X7" s="1">
-        <v>91.05</v>
+        <v>99.2</v>
       </c>
       <c r="Y7" s="1">
-        <v>71.58</v>
+        <v>39.58</v>
       </c>
       <c r="Z7" s="1">
-        <v>40.6</v>
+        <v>59.86</v>
       </c>
       <c r="AA7" s="1">
-        <v>91.34</v>
+        <v>86.04</v>
       </c>
       <c r="AB7" s="1">
-        <v>75.87</v>
+        <v>49.97</v>
       </c>
       <c r="AC7" s="1">
-        <v>90.96</v>
+        <v>133.13999999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>70.180000000000007</v>
+        <v>92.88</v>
       </c>
       <c r="AE7" s="1">
-        <v>56</v>
-      </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
+        <v>54.79</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>101.87</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>114.54</v>
+      </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
@@ -1494,8 +1517,12 @@
       <c r="AE8" s="1">
         <v>57.3</v>
       </c>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
+      <c r="AF8" s="1">
+        <v>76.97</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>11.74</v>
+      </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
@@ -1506,100 +1533,104 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>74.489999999999995</v>
+        <v>70.55</v>
       </c>
       <c r="C9" s="1">
-        <v>55.42</v>
+        <v>106.22</v>
       </c>
       <c r="D9" s="1">
-        <v>73.17</v>
+        <v>58.2</v>
       </c>
       <c r="E9" s="1">
-        <v>91.51</v>
+        <v>101.96</v>
       </c>
       <c r="F9" s="1">
-        <v>90.61</v>
+        <v>91.52</v>
       </c>
       <c r="G9" s="1">
-        <v>78.430000000000007</v>
+        <v>97.81</v>
       </c>
       <c r="H9" s="1">
-        <v>76.44</v>
+        <v>104.24</v>
       </c>
       <c r="I9" s="1">
-        <v>108.89</v>
+        <v>145.44999999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>84.37</v>
+        <v>66.52</v>
       </c>
       <c r="K9" s="1">
-        <v>76.77</v>
+        <v>49.1</v>
       </c>
       <c r="L9" s="1">
-        <v>102.35</v>
+        <v>81.87</v>
       </c>
       <c r="M9" s="1">
-        <v>61.14</v>
+        <v>63.41</v>
       </c>
       <c r="N9" s="1">
-        <v>122.04</v>
+        <v>107.41</v>
       </c>
       <c r="O9" s="1">
-        <v>68.7</v>
+        <v>63.65</v>
       </c>
       <c r="P9" s="1">
-        <v>107.1</v>
+        <v>91.8</v>
       </c>
       <c r="Q9" s="1">
-        <v>59.7</v>
+        <v>73.28</v>
       </c>
       <c r="R9" s="1">
-        <v>41.16</v>
+        <v>65.31</v>
       </c>
       <c r="S9" s="1">
-        <v>114.9</v>
+        <v>68.67</v>
       </c>
       <c r="T9" s="1">
-        <v>64.599999999999994</v>
+        <v>75.45</v>
       </c>
       <c r="U9" s="1">
-        <v>68.56</v>
+        <v>75.86</v>
       </c>
       <c r="V9" s="1">
-        <v>168.76</v>
+        <v>172.91</v>
       </c>
       <c r="W9" s="1">
-        <v>77.959999999999994</v>
+        <v>86.11</v>
       </c>
       <c r="X9" s="1">
-        <v>99.2</v>
+        <v>91.05</v>
       </c>
       <c r="Y9" s="1">
-        <v>39.58</v>
+        <v>71.58</v>
       </c>
       <c r="Z9" s="1">
-        <v>59.86</v>
+        <v>40.6</v>
       </c>
       <c r="AA9" s="1">
-        <v>86.04</v>
+        <v>91.34</v>
       </c>
       <c r="AB9" s="1">
-        <v>49.97</v>
+        <v>75.87</v>
       </c>
       <c r="AC9" s="1">
-        <v>133.13999999999999</v>
+        <v>90.96</v>
       </c>
       <c r="AD9" s="1">
-        <v>92.88</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="AE9" s="1">
-        <v>54.79</v>
-      </c>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>77.47</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>81.040000000000006</v>
+      </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
@@ -1702,8 +1733,12 @@
       <c r="AE10" s="1">
         <v>56.04</v>
       </c>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
+      <c r="AF10" s="1">
+        <v>64.27</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>50.22</v>
+      </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
@@ -1806,8 +1841,12 @@
       <c r="AE11" s="1">
         <v>27.69</v>
       </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AF11" s="1">
+        <v>70.02</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>86.55</v>
+      </c>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -1818,100 +1857,104 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="1">
-        <v>89.63</v>
+        <v>56.11</v>
       </c>
       <c r="C12" s="1">
-        <v>102.92</v>
+        <v>91.42</v>
       </c>
       <c r="D12" s="1">
-        <v>73.319999999999993</v>
+        <v>82.12</v>
       </c>
       <c r="E12" s="1">
-        <v>132.21</v>
+        <v>70.73</v>
       </c>
       <c r="F12" s="1">
-        <v>85.18</v>
+        <v>39.99</v>
       </c>
       <c r="G12" s="1">
-        <v>82.41</v>
+        <v>104.45</v>
       </c>
       <c r="H12" s="1">
-        <v>89.74</v>
+        <v>105.44</v>
       </c>
       <c r="I12" s="1">
-        <v>95.19</v>
+        <v>52.03</v>
       </c>
       <c r="J12" s="1">
-        <v>80.63</v>
+        <v>45.67</v>
       </c>
       <c r="K12" s="1">
-        <v>29.96</v>
+        <v>67.87</v>
       </c>
       <c r="L12" s="1">
-        <v>97.47</v>
+        <v>65.69</v>
       </c>
       <c r="M12" s="1">
-        <v>65.36</v>
+        <v>10.87</v>
       </c>
       <c r="N12" s="1">
-        <v>86.21</v>
+        <v>94.21</v>
       </c>
       <c r="O12" s="1">
-        <v>16.5</v>
+        <v>57.4</v>
       </c>
       <c r="P12" s="1">
-        <v>105.5</v>
+        <v>97.2</v>
       </c>
       <c r="Q12" s="1">
-        <v>51.67</v>
+        <v>65.53</v>
       </c>
       <c r="R12" s="1">
-        <v>59.74</v>
+        <v>84.91</v>
       </c>
       <c r="S12" s="1">
-        <v>69.8</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="T12" s="1">
-        <v>48.31</v>
+        <v>63.5</v>
       </c>
       <c r="U12" s="1">
-        <v>39.81</v>
+        <v>76.86</v>
       </c>
       <c r="V12" s="1">
-        <v>161.47</v>
+        <v>172.91</v>
       </c>
       <c r="W12" s="1">
-        <v>73.489999999999995</v>
+        <v>56.26</v>
       </c>
       <c r="X12" s="1">
-        <v>78.900000000000006</v>
+        <v>65.02</v>
       </c>
       <c r="Y12" s="1">
-        <v>63.31</v>
+        <v>80.86</v>
       </c>
       <c r="Z12" s="1">
-        <v>46.15</v>
+        <v>51.3</v>
       </c>
       <c r="AA12" s="1">
-        <v>50.9</v>
+        <v>89.94</v>
       </c>
       <c r="AB12" s="1">
-        <v>25.45</v>
+        <v>86.92</v>
       </c>
       <c r="AC12" s="1">
-        <v>85.18</v>
+        <v>109.44</v>
       </c>
       <c r="AD12" s="1">
-        <v>93.04</v>
+        <v>91.43</v>
       </c>
       <c r="AE12" s="1">
-        <v>31.93</v>
-      </c>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
+        <v>37.44</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>84.97</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>105.04</v>
+      </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
@@ -1922,100 +1965,104 @@
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>84.38</v>
+        <v>63.55</v>
       </c>
       <c r="C13" s="1">
-        <v>72.319999999999993</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="D13" s="1">
-        <v>63.92</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E13" s="1">
-        <v>87.62</v>
+        <v>82.81</v>
       </c>
       <c r="F13" s="1">
-        <v>89.88</v>
+        <v>68.92</v>
       </c>
       <c r="G13" s="1">
-        <v>112.64</v>
+        <v>92.16</v>
       </c>
       <c r="H13" s="1">
-        <v>90.2</v>
+        <v>81.540000000000006</v>
       </c>
       <c r="I13" s="1">
-        <v>73.959999999999994</v>
+        <v>95.55</v>
       </c>
       <c r="J13" s="1">
-        <v>68.03</v>
+        <v>31.22</v>
       </c>
       <c r="K13" s="1">
-        <v>82.72</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="L13" s="1">
-        <v>125.92</v>
+        <v>115.42</v>
       </c>
       <c r="M13" s="1">
-        <v>72.5</v>
+        <v>7.8</v>
       </c>
       <c r="N13" s="1">
-        <v>55.8</v>
+        <v>96.71</v>
       </c>
       <c r="O13" s="1">
-        <v>69.849999999999994</v>
+        <v>73.5</v>
       </c>
       <c r="P13" s="1">
-        <v>67.3</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="Q13" s="1">
-        <v>68.7</v>
+        <v>81.88</v>
       </c>
       <c r="R13" s="1">
-        <v>51.15</v>
+        <v>62.92</v>
       </c>
       <c r="S13" s="1">
-        <v>81.36</v>
+        <v>66.17</v>
       </c>
       <c r="T13" s="1">
-        <v>44.58</v>
+        <v>62.8</v>
       </c>
       <c r="U13" s="4">
-        <v>78.13</v>
+        <v>65.55</v>
       </c>
       <c r="V13" s="1">
-        <v>150.11000000000001</v>
+        <v>164.56</v>
       </c>
       <c r="W13" s="1">
-        <v>84.41</v>
+        <v>80.16</v>
       </c>
       <c r="X13" s="1">
-        <v>93</v>
+        <v>59.45</v>
       </c>
       <c r="Y13" s="1">
-        <v>19.41</v>
+        <v>43.35</v>
       </c>
       <c r="Z13" s="1">
-        <v>31.6</v>
+        <v>51.65</v>
       </c>
       <c r="AA13" s="1">
-        <v>52.82</v>
+        <v>91.34</v>
       </c>
       <c r="AB13" s="1">
-        <v>43.07</v>
+        <v>61.38</v>
       </c>
       <c r="AC13" s="1">
-        <v>92.55</v>
+        <v>111.94</v>
       </c>
       <c r="AD13" s="1">
-        <v>77.06</v>
+        <v>115.69</v>
       </c>
       <c r="AE13" s="1">
-        <v>28.69</v>
-      </c>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
+        <v>43.14</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>78.569999999999993</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>69.77</v>
+      </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
@@ -2118,8 +2165,12 @@
       <c r="AE14" s="1">
         <v>41.14</v>
       </c>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
+      <c r="AF14" s="1">
+        <v>57.79</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>81.64</v>
+      </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
@@ -2130,100 +2181,104 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>56.11</v>
+        <v>89.63</v>
       </c>
       <c r="C15" s="1">
-        <v>91.42</v>
+        <v>102.92</v>
       </c>
       <c r="D15" s="1">
-        <v>82.12</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="E15" s="1">
-        <v>70.73</v>
+        <v>132.21</v>
       </c>
       <c r="F15" s="1">
-        <v>39.99</v>
+        <v>85.18</v>
       </c>
       <c r="G15" s="1">
-        <v>104.45</v>
+        <v>82.41</v>
       </c>
       <c r="H15" s="1">
-        <v>105.44</v>
+        <v>89.74</v>
       </c>
       <c r="I15" s="1">
-        <v>52.03</v>
+        <v>95.19</v>
       </c>
       <c r="J15" s="1">
-        <v>45.67</v>
+        <v>80.63</v>
       </c>
       <c r="K15" s="1">
-        <v>67.87</v>
+        <v>29.96</v>
       </c>
       <c r="L15" s="1">
-        <v>65.69</v>
+        <v>97.47</v>
       </c>
       <c r="M15" s="1">
-        <v>10.87</v>
+        <v>65.36</v>
       </c>
       <c r="N15" s="1">
-        <v>94.21</v>
+        <v>86.21</v>
       </c>
       <c r="O15" s="1">
-        <v>57.4</v>
+        <v>16.5</v>
       </c>
       <c r="P15" s="1">
-        <v>97.2</v>
+        <v>105.5</v>
       </c>
       <c r="Q15" s="1">
-        <v>65.53</v>
+        <v>51.67</v>
       </c>
       <c r="R15" s="1">
-        <v>84.91</v>
+        <v>59.74</v>
       </c>
       <c r="S15" s="1">
-        <v>65.099999999999994</v>
+        <v>69.8</v>
       </c>
       <c r="T15" s="1">
-        <v>63.5</v>
+        <v>48.31</v>
       </c>
       <c r="U15" s="1">
-        <v>76.86</v>
+        <v>39.81</v>
       </c>
       <c r="V15" s="1">
-        <v>172.91</v>
+        <v>161.47</v>
       </c>
       <c r="W15" s="1">
-        <v>56.26</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="X15" s="1">
-        <v>65.02</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>80.86</v>
+        <v>63.31</v>
       </c>
       <c r="Z15" s="1">
-        <v>51.3</v>
+        <v>46.15</v>
       </c>
       <c r="AA15" s="1">
-        <v>89.94</v>
+        <v>50.9</v>
       </c>
       <c r="AB15" s="1">
-        <v>86.92</v>
+        <v>25.45</v>
       </c>
       <c r="AC15" s="1">
-        <v>109.44</v>
+        <v>85.18</v>
       </c>
       <c r="AD15" s="1">
-        <v>91.43</v>
+        <v>93.04</v>
       </c>
       <c r="AE15" s="1">
-        <v>37.44</v>
-      </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
+        <v>31.93</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>66.55</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>63.69</v>
+      </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
@@ -2234,100 +2289,104 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>63.55</v>
+        <v>84.38</v>
       </c>
       <c r="C16" s="1">
-        <v>79.790000000000006</v>
+        <v>72.319999999999993</v>
       </c>
       <c r="D16" s="1">
-        <v>71.900000000000006</v>
+        <v>63.92</v>
       </c>
       <c r="E16" s="1">
-        <v>82.81</v>
+        <v>87.62</v>
       </c>
       <c r="F16" s="1">
-        <v>68.92</v>
+        <v>89.88</v>
       </c>
       <c r="G16" s="1">
-        <v>92.16</v>
+        <v>112.64</v>
       </c>
       <c r="H16" s="1">
-        <v>81.540000000000006</v>
+        <v>90.2</v>
       </c>
       <c r="I16" s="1">
-        <v>95.55</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="J16" s="1">
-        <v>31.22</v>
+        <v>68.03</v>
       </c>
       <c r="K16" s="1">
-        <v>36.700000000000003</v>
+        <v>82.72</v>
       </c>
       <c r="L16" s="1">
-        <v>115.42</v>
+        <v>125.92</v>
       </c>
       <c r="M16" s="1">
-        <v>7.8</v>
+        <v>72.5</v>
       </c>
       <c r="N16" s="1">
-        <v>96.71</v>
+        <v>55.8</v>
       </c>
       <c r="O16" s="1">
-        <v>73.5</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="P16" s="1">
-        <v>69.180000000000007</v>
+        <v>67.3</v>
       </c>
       <c r="Q16" s="1">
-        <v>81.88</v>
+        <v>68.7</v>
       </c>
       <c r="R16" s="1">
-        <v>62.92</v>
+        <v>51.15</v>
       </c>
       <c r="S16" s="1">
-        <v>66.17</v>
+        <v>81.36</v>
       </c>
       <c r="T16" s="1">
-        <v>62.8</v>
+        <v>44.58</v>
       </c>
       <c r="U16" s="1">
-        <v>65.55</v>
+        <v>78.13</v>
       </c>
       <c r="V16" s="1">
-        <v>164.56</v>
+        <v>150.11000000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>80.16</v>
+        <v>84.41</v>
       </c>
       <c r="X16" s="1">
-        <v>59.45</v>
+        <v>93</v>
       </c>
       <c r="Y16" s="1">
-        <v>43.35</v>
+        <v>19.41</v>
       </c>
       <c r="Z16" s="1">
-        <v>51.65</v>
+        <v>31.6</v>
       </c>
       <c r="AA16" s="1">
-        <v>91.34</v>
+        <v>52.82</v>
       </c>
       <c r="AB16" s="1">
-        <v>61.38</v>
+        <v>43.07</v>
       </c>
       <c r="AC16" s="1">
-        <v>111.94</v>
+        <v>92.55</v>
       </c>
       <c r="AD16" s="1">
-        <v>115.69</v>
+        <v>77.06</v>
       </c>
       <c r="AE16" s="1">
-        <v>43.14</v>
-      </c>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
+        <v>28.69</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>20.02</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>88.92</v>
+      </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
@@ -2338,100 +2397,104 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1">
-        <v>55.38</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>55.74</v>
+        <v>48.37</v>
       </c>
       <c r="D17" s="1">
-        <v>47.97</v>
+        <v>50.22</v>
       </c>
       <c r="E17" s="1">
-        <v>84.66</v>
+        <v>63.98</v>
       </c>
       <c r="F17" s="1">
-        <v>96.86</v>
+        <v>60.78</v>
       </c>
       <c r="G17" s="1">
-        <v>79.5</v>
+        <v>80.78</v>
       </c>
       <c r="H17" s="1">
-        <v>60.03</v>
+        <v>84.36</v>
       </c>
       <c r="I17" s="1">
-        <v>104.98</v>
+        <v>113.25</v>
       </c>
       <c r="J17" s="1">
-        <v>67.349999999999994</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K17" s="1">
-        <v>68.31</v>
+        <v>80.12</v>
       </c>
       <c r="L17" s="1">
-        <v>60.42</v>
+        <v>69.31</v>
       </c>
       <c r="M17" s="1">
-        <v>73.709999999999994</v>
+        <v>51.66</v>
       </c>
       <c r="N17" s="1">
-        <v>55.09</v>
+        <v>94.3</v>
       </c>
       <c r="O17" s="1">
-        <v>37.65</v>
+        <v>59.9</v>
       </c>
       <c r="P17" s="1">
-        <v>62.42</v>
+        <v>90.3</v>
       </c>
       <c r="Q17" s="1">
-        <v>51.5</v>
+        <v>61.17</v>
       </c>
       <c r="R17" s="1">
-        <v>46.3</v>
+        <v>69.209999999999994</v>
       </c>
       <c r="S17" s="1">
-        <v>75.900000000000006</v>
+        <v>93.97</v>
       </c>
       <c r="T17" s="1">
-        <v>87.36</v>
+        <v>60.75</v>
       </c>
       <c r="U17" s="1">
-        <v>82.28</v>
+        <v>44.15</v>
       </c>
       <c r="V17" s="1">
-        <v>160.36000000000001</v>
+        <v>162.46</v>
       </c>
       <c r="W17" s="1">
-        <v>50.36</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>61.6</v>
+        <v>59.07</v>
       </c>
       <c r="Y17" s="1">
-        <v>46.11</v>
+        <v>49.08</v>
       </c>
       <c r="Z17" s="1">
-        <v>48.45</v>
+        <v>53.14</v>
       </c>
       <c r="AA17" s="1">
-        <v>39.07</v>
+        <v>37.19</v>
       </c>
       <c r="AB17" s="1">
-        <v>27.02</v>
+        <v>30.75</v>
       </c>
       <c r="AC17" s="1">
-        <v>54.65</v>
+        <v>49.98</v>
       </c>
       <c r="AD17" s="1">
-        <v>47.71</v>
+        <v>60.15</v>
       </c>
       <c r="AE17" s="1">
-        <v>49.69</v>
-      </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
+        <v>19.25</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>49.54</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>53.41</v>
+      </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
@@ -2442,100 +2505,104 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>0</v>
+        <v>55.38</v>
       </c>
       <c r="C18" s="1">
-        <v>48.37</v>
+        <v>55.74</v>
       </c>
       <c r="D18" s="1">
-        <v>50.22</v>
+        <v>47.97</v>
       </c>
       <c r="E18" s="1">
-        <v>63.98</v>
+        <v>84.66</v>
       </c>
       <c r="F18" s="1">
-        <v>60.78</v>
+        <v>96.86</v>
       </c>
       <c r="G18" s="1">
-        <v>80.78</v>
+        <v>79.5</v>
       </c>
       <c r="H18" s="1">
-        <v>84.36</v>
+        <v>60.03</v>
       </c>
       <c r="I18" s="1">
-        <v>113.25</v>
+        <v>104.98</v>
       </c>
       <c r="J18" s="1">
-        <v>34.950000000000003</v>
+        <v>67.349999999999994</v>
       </c>
       <c r="K18" s="1">
-        <v>80.12</v>
+        <v>68.31</v>
       </c>
       <c r="L18" s="1">
-        <v>69.31</v>
+        <v>60.42</v>
       </c>
       <c r="M18" s="1">
-        <v>51.66</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="N18" s="1">
-        <v>94.3</v>
+        <v>55.09</v>
       </c>
       <c r="O18" s="1">
-        <v>59.9</v>
+        <v>37.65</v>
       </c>
       <c r="P18" s="1">
-        <v>90.3</v>
+        <v>62.42</v>
       </c>
       <c r="Q18" s="1">
-        <v>61.17</v>
+        <v>51.5</v>
       </c>
       <c r="R18" s="1">
-        <v>69.209999999999994</v>
+        <v>46.3</v>
       </c>
       <c r="S18" s="1">
-        <v>93.97</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="T18" s="1">
-        <v>60.75</v>
+        <v>87.36</v>
       </c>
       <c r="U18" s="1">
-        <v>44.15</v>
+        <v>82.28</v>
       </c>
       <c r="V18" s="1">
-        <v>162.46</v>
+        <v>160.36000000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>77.260000000000005</v>
+        <v>50.36</v>
       </c>
       <c r="X18" s="1">
-        <v>59.07</v>
+        <v>61.6</v>
       </c>
       <c r="Y18" s="1">
-        <v>49.08</v>
+        <v>46.11</v>
       </c>
       <c r="Z18" s="1">
-        <v>53.14</v>
+        <v>48.45</v>
       </c>
       <c r="AA18" s="1">
-        <v>37.19</v>
+        <v>39.07</v>
       </c>
       <c r="AB18" s="1">
-        <v>30.75</v>
+        <v>27.02</v>
       </c>
       <c r="AC18" s="1">
-        <v>49.98</v>
+        <v>54.65</v>
       </c>
       <c r="AD18" s="1">
-        <v>60.15</v>
+        <v>47.71</v>
       </c>
       <c r="AE18" s="1">
-        <v>19.25</v>
-      </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+        <v>49.69</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>31.62</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>27.68</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
@@ -2638,8 +2705,12 @@
       <c r="AE19" s="1">
         <v>50.61</v>
       </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
+      <c r="AF19" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>92.51</v>
+      </c>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
@@ -2742,8 +2813,12 @@
       <c r="AE20" s="1">
         <v>57.27</v>
       </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
+      <c r="AF20" s="1">
+        <v>65.05</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>52.86</v>
+      </c>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
@@ -2846,8 +2921,12 @@
       <c r="AE21" s="1">
         <v>40.159999999999997</v>
       </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
+      <c r="AF21" s="1">
+        <v>35.35</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>39.18</v>
+      </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFEECA8-BD0A-45CC-A028-557B8A8C637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC8C39-7688-4F68-A830-AC9CEF886622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1296,7 @@
         <v>134.94</v>
       </c>
       <c r="AD6" s="1">
-        <v>74.790000000000006</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="AE6" s="1">
         <v>37.590000000000003</v>
@@ -1521,7 +1521,7 @@
         <v>76.97</v>
       </c>
       <c r="AG8" s="1">
-        <v>11.74</v>
+        <v>111.74</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -1620,7 +1620,7 @@
         <v>90.96</v>
       </c>
       <c r="AD9" s="1">
-        <v>70.180000000000007</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="AE9" s="1">
         <v>56</v>
@@ -1839,7 +1839,7 @@
         <v>122.6</v>
       </c>
       <c r="AE11" s="1">
-        <v>27.69</v>
+        <v>28</v>
       </c>
       <c r="AF11" s="1">
         <v>70.02</v>

--- a/Linha do tempo cartola 1.xlsx
+++ b/Linha do tempo cartola 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaltini\Desktop\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC8C39-7688-4F68-A830-AC9CEF886622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5E1B5-FD12-4749-934E-E889C13AAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D21F2C9F-EDB6-46C7-94A8-11E59B98B50E}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+      <selection activeCell="AN2" sqref="AN2:AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,9 +875,15 @@
       <c r="AG2" s="1">
         <v>124.84</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
+      <c r="AH2" s="1">
+        <v>61.17</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>104.17</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>123.61</v>
+      </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -983,9 +989,15 @@
       <c r="AG3" s="1">
         <v>98.94</v>
       </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
+      <c r="AH3" s="1">
+        <v>66.12</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>108.71</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>123.69</v>
+      </c>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -1091,9 +1103,15 @@
       <c r="AG4" s="1">
         <v>103.54</v>
       </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AH4" s="1">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>103.27</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>123.61</v>
+      </c>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -1199,9 +1217,15 @@
       <c r="AG5" s="1">
         <v>78.290000000000006</v>
       </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AH5" s="1">
+        <v>81.72</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>81.209999999999994</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>106.31</v>
+      </c>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -1209,107 +1233,113 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>90.29</v>
+        <v>74.790000000000006</v>
       </c>
       <c r="C6" s="1">
-        <v>87.29</v>
+        <v>82.29</v>
       </c>
       <c r="D6" s="1">
-        <v>85.05</v>
+        <v>56.1</v>
       </c>
       <c r="E6" s="1">
-        <v>115.51</v>
+        <v>118.28</v>
       </c>
       <c r="F6" s="1">
-        <v>56.68</v>
+        <v>88.43</v>
       </c>
       <c r="G6" s="1">
-        <v>106.56</v>
+        <v>74.06</v>
       </c>
       <c r="H6" s="1">
-        <v>75.91</v>
+        <v>87.86</v>
       </c>
       <c r="I6" s="1">
-        <v>116.94</v>
+        <v>110.44</v>
       </c>
       <c r="J6" s="1">
-        <v>90.67</v>
+        <v>64.42</v>
       </c>
       <c r="K6" s="1">
-        <v>66.62</v>
+        <v>59.77</v>
       </c>
       <c r="L6" s="1">
-        <v>118.14</v>
+        <v>96.72</v>
       </c>
       <c r="M6" s="1">
-        <v>44.66</v>
+        <v>56.46</v>
       </c>
       <c r="N6" s="1">
-        <v>97.66</v>
+        <v>117.25</v>
       </c>
       <c r="O6" s="1">
-        <v>65.400000000000006</v>
+        <v>60.8</v>
       </c>
       <c r="P6" s="1">
-        <v>112.3</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="1">
-        <v>71.86</v>
+        <v>81.66</v>
       </c>
       <c r="R6" s="1">
-        <v>51.21</v>
+        <v>69.41</v>
       </c>
       <c r="S6" s="1">
-        <v>86.66</v>
+        <v>94</v>
       </c>
       <c r="T6" s="1">
-        <v>62.3</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="U6" s="1">
-        <v>72.86</v>
+        <v>58.36</v>
       </c>
       <c r="V6" s="1">
-        <v>191.06</v>
+        <v>188.61</v>
       </c>
       <c r="W6" s="1">
-        <v>83.06</v>
+        <v>83.76</v>
       </c>
       <c r="X6" s="1">
-        <v>69.95</v>
+        <v>100.47</v>
       </c>
       <c r="Y6" s="1">
-        <v>49.81</v>
+        <v>43.63</v>
       </c>
       <c r="Z6" s="1">
-        <v>68.150000000000006</v>
+        <v>54.2</v>
       </c>
       <c r="AA6" s="1">
-        <v>76.94</v>
+        <v>98.84</v>
       </c>
       <c r="AB6" s="1">
-        <v>64.97</v>
+        <v>96.45</v>
       </c>
       <c r="AC6" s="1">
-        <v>134.94</v>
+        <v>131.04</v>
       </c>
       <c r="AD6" s="1">
-        <v>70.180000000000007</v>
+        <v>109.43</v>
       </c>
       <c r="AE6" s="1">
-        <v>37.590000000000003</v>
+        <v>57.3</v>
       </c>
       <c r="AF6" s="1">
-        <v>84.52</v>
+        <v>76.97</v>
       </c>
       <c r="AG6" s="1">
-        <v>106.14</v>
-      </c>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+        <v>111.74</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>79.37</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>104.41</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>115.14</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -1317,107 +1347,113 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>74.489999999999995</v>
+        <v>90.29</v>
       </c>
       <c r="C7" s="1">
-        <v>55.42</v>
+        <v>87.29</v>
       </c>
       <c r="D7" s="1">
-        <v>73.17</v>
+        <v>85.05</v>
       </c>
       <c r="E7" s="1">
-        <v>91.51</v>
+        <v>115.51</v>
       </c>
       <c r="F7" s="1">
-        <v>90.61</v>
+        <v>56.68</v>
       </c>
       <c r="G7" s="1">
-        <v>78.430000000000007</v>
+        <v>106.56</v>
       </c>
       <c r="H7" s="1">
-        <v>76.44</v>
+        <v>75.91</v>
       </c>
       <c r="I7" s="1">
-        <v>108.89</v>
+        <v>116.94</v>
       </c>
       <c r="J7" s="1">
-        <v>84.37</v>
+        <v>90.67</v>
       </c>
       <c r="K7" s="1">
-        <v>76.77</v>
+        <v>66.62</v>
       </c>
       <c r="L7" s="1">
-        <v>102.35</v>
+        <v>118.14</v>
       </c>
       <c r="M7" s="1">
-        <v>61.14</v>
+        <v>44.66</v>
       </c>
       <c r="N7" s="1">
-        <v>122.04</v>
+        <v>97.66</v>
       </c>
       <c r="O7" s="1">
-        <v>68.7</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="P7" s="1">
-        <v>107.1</v>
+        <v>112.3</v>
       </c>
       <c r="Q7" s="1">
-        <v>59.7</v>
+        <v>71.86</v>
       </c>
       <c r="R7" s="1">
-        <v>41.16</v>
+        <v>51.21</v>
       </c>
       <c r="S7" s="1">
-        <v>114.9</v>
+        <v>86.66</v>
       </c>
       <c r="T7" s="1">
-        <v>64.599999999999994</v>
+        <v>62.3</v>
       </c>
       <c r="U7" s="1">
-        <v>68.56</v>
+        <v>72.86</v>
       </c>
       <c r="V7" s="1">
-        <v>168.76</v>
+        <v>191.06</v>
       </c>
       <c r="W7" s="1">
-        <v>77.959999999999994</v>
+        <v>83.06</v>
       </c>
       <c r="X7" s="1">
-        <v>99.2</v>
+        <v>69.95</v>
       </c>
       <c r="Y7" s="1">
-        <v>39.58</v>
+        <v>49.81</v>
       </c>
       <c r="Z7" s="1">
-        <v>59.86</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="AA7" s="1">
-        <v>86.04</v>
+        <v>76.94</v>
       </c>
       <c r="AB7" s="1">
-        <v>49.97</v>
+        <v>64.97</v>
       </c>
       <c r="AC7" s="1">
-        <v>133.13999999999999</v>
+        <v>134.94</v>
       </c>
       <c r="AD7" s="1">
-        <v>92.88</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="AE7" s="1">
-        <v>54.79</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>101.87</v>
+        <v>84.52</v>
       </c>
       <c r="AG7" s="1">
-        <v>114.54</v>
-      </c>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+        <v>106.14</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>64.64</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>132.61000000000001</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -1425,107 +1461,113 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>74.790000000000006</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C8" s="1">
-        <v>82.29</v>
+        <v>55.42</v>
       </c>
       <c r="D8" s="1">
-        <v>56.1</v>
+        <v>73.17</v>
       </c>
       <c r="E8" s="1">
-        <v>118.28</v>
+        <v>91.51</v>
       </c>
       <c r="F8" s="1">
-        <v>88.43</v>
+        <v>90.61</v>
       </c>
       <c r="G8" s="1">
-        <v>74.06</v>
+        <v>78.430000000000007</v>
       </c>
       <c r="H8" s="1">
-        <v>87.86</v>
+        <v>76.44</v>
       </c>
       <c r="I8" s="1">
-        <v>110.44</v>
+        <v>108.89</v>
       </c>
       <c r="J8" s="1">
-        <v>64.42</v>
+        <v>84.37</v>
       </c>
       <c r="K8" s="1">
-        <v>59.77</v>
+        <v>76.77</v>
       </c>
       <c r="L8" s="1">
-        <v>96.72</v>
+        <v>102.35</v>
       </c>
       <c r="M8" s="1">
-        <v>56.46</v>
+        <v>61.14</v>
       </c>
       <c r="N8" s="1">
-        <v>117.25</v>
+        <v>122.04</v>
       </c>
       <c r="O8" s="1">
-        <v>60.8</v>
+        <v>68.7</v>
       </c>
       <c r="P8" s="1">
-        <v>99</v>
+        <v>107.1</v>
       </c>
       <c r="Q8" s="1">
-        <v>81.66</v>
+        <v>59.7</v>
       </c>
       <c r="R8" s="1">
-        <v>69.41</v>
+        <v>41.16</v>
       </c>
       <c r="S8" s="1">
-        <v>94</v>
+        <v>114.9</v>
       </c>
       <c r="T8" s="1">
-        <v>72.150000000000006</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="U8" s="1">
-        <v>58.36</v>
+        <v>68.56</v>
       </c>
       <c r="V8" s="1">
-        <v>188.61</v>
+        <v>168.76</v>
       </c>
       <c r="W8" s="1">
-        <v>83.76</v>
+        <v>77.959999999999994</v>
       </c>
       <c r="X8" s="1">
-        <v>100.47</v>
+        <v>99.2</v>
       </c>
       <c r="Y8" s="1">
-        <v>43.63</v>
+        <v>39.58</v>
       </c>
       <c r="Z8" s="1">
-        <v>54.2</v>
+        <v>59.86</v>
       </c>
       <c r="AA8" s="1">
-        <v>98.84</v>
+        <v>86.04</v>
       </c>
       <c r="AB8" s="1">
-        <v>96.45</v>
+        <v>49.97</v>
       </c>
       <c r="AC8" s="1">
-        <v>131.04</v>
+        <v>133.13999999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>109.43</v>
+        <v>92.88</v>
       </c>
       <c r="AE8" s="1">
-        <v>57.3</v>
+        <v>54.79</v>
       </c>
       <c r="AF8" s="1">
-        <v>76.97</v>
+        <v>101.87</v>
       </c>
       <c r="AG8" s="1">
-        <v>111.74</v>
-      </c>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+        <v>114.54</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>68.52</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>76.47</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>119.84</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -1631,9 +1673,15 @@
       <c r="AG9" s="1">
         <v>81.040000000000006</v>
       </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
+      <c r="AH9" s="1">
+        <v>54.54</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>56.95</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>110.76</v>
+      </c>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
@@ -1641,107 +1689,113 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
-        <v>70.25</v>
+        <v>68.94</v>
       </c>
       <c r="C10" s="1">
-        <v>66.69</v>
+        <v>43.43</v>
       </c>
       <c r="D10" s="1">
-        <v>64.819999999999993</v>
+        <v>46.82</v>
       </c>
       <c r="E10" s="1">
-        <v>98.8</v>
+        <v>59.22</v>
       </c>
       <c r="F10" s="1">
-        <v>77.53</v>
+        <v>66.08</v>
       </c>
       <c r="G10" s="1">
-        <v>84.25</v>
+        <v>102.56</v>
       </c>
       <c r="H10" s="1">
-        <v>89.49</v>
+        <v>91.49</v>
       </c>
       <c r="I10" s="1">
-        <v>92.21</v>
+        <v>85.54</v>
       </c>
       <c r="J10" s="1">
-        <v>86.53</v>
+        <v>62.98</v>
       </c>
       <c r="K10" s="1">
-        <v>63.95</v>
+        <v>85.85</v>
       </c>
       <c r="L10" s="1">
-        <v>99.46</v>
+        <v>81.69</v>
       </c>
       <c r="M10" s="1">
-        <v>52.56</v>
+        <v>62.16</v>
       </c>
       <c r="N10" s="1">
-        <v>103.11</v>
+        <v>91.47</v>
       </c>
       <c r="O10" s="1">
-        <v>53.7</v>
+        <v>56.45</v>
       </c>
       <c r="P10" s="1">
-        <v>90.49</v>
+        <v>42.52</v>
       </c>
       <c r="Q10" s="1">
-        <v>76.58</v>
+        <v>55.78</v>
       </c>
       <c r="R10" s="1">
-        <v>55.85</v>
+        <v>53.11</v>
       </c>
       <c r="S10" s="1">
-        <v>96.68</v>
+        <v>100.67</v>
       </c>
       <c r="T10" s="1">
-        <v>66.31</v>
+        <v>79.61</v>
       </c>
       <c r="U10" s="1">
-        <v>68.650000000000006</v>
+        <v>91.61</v>
       </c>
       <c r="V10" s="1">
-        <v>154.22</v>
+        <v>169.87</v>
       </c>
       <c r="W10" s="1">
-        <v>59.89</v>
+        <v>88.54</v>
       </c>
       <c r="X10" s="1">
-        <v>67.23</v>
+        <v>91.8</v>
       </c>
       <c r="Y10" s="1">
-        <v>58.61</v>
+        <v>62.84</v>
       </c>
       <c r="Z10" s="1">
-        <v>58.75</v>
+        <v>58.5</v>
       </c>
       <c r="AA10" s="1">
-        <v>72.62</v>
+        <v>78.13</v>
       </c>
       <c r="AB10" s="1">
-        <v>101.99</v>
+        <v>68.92</v>
       </c>
       <c r="AC10" s="1">
-        <v>107.06</v>
+        <v>132.86000000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>88.43</v>
+        <v>122.6</v>
       </c>
       <c r="AE10" s="1">
-        <v>56.04</v>
+        <v>28</v>
       </c>
       <c r="AF10" s="1">
-        <v>64.27</v>
+        <v>70.02</v>
       </c>
       <c r="AG10" s="1">
-        <v>50.22</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+        <v>86.55</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>73.02</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>99.27</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>125.44</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -1749,107 +1803,113 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>68.94</v>
+        <v>70.25</v>
       </c>
       <c r="C11" s="1">
-        <v>43.43</v>
+        <v>66.69</v>
       </c>
       <c r="D11" s="1">
-        <v>46.82</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="E11" s="1">
-        <v>59.22</v>
+        <v>98.8</v>
       </c>
       <c r="F11" s="1">
-        <v>66.08</v>
+        <v>77.53</v>
       </c>
       <c r="G11" s="1">
-        <v>102.56</v>
+        <v>84.25</v>
       </c>
       <c r="H11" s="1">
-        <v>91.49</v>
+        <v>89.49</v>
       </c>
       <c r="I11" s="1">
-        <v>85.54</v>
+        <v>92.21</v>
       </c>
       <c r="J11" s="1">
-        <v>62.98</v>
+        <v>86.53</v>
       </c>
       <c r="K11" s="1">
-        <v>85.85</v>
+        <v>63.95</v>
       </c>
       <c r="L11" s="1">
-        <v>81.69</v>
+        <v>99.46</v>
       </c>
       <c r="M11" s="1">
-        <v>62.16</v>
+        <v>52.56</v>
       </c>
       <c r="N11" s="1">
-        <v>91.47</v>
+        <v>103.11</v>
       </c>
       <c r="O11" s="1">
-        <v>56.45</v>
+        <v>53.7</v>
       </c>
       <c r="P11" s="1">
-        <v>42.52</v>
+        <v>90.49</v>
       </c>
       <c r="Q11" s="1">
-        <v>55.78</v>
+        <v>76.58</v>
       </c>
       <c r="R11" s="1">
-        <v>53.11</v>
+        <v>55.85</v>
       </c>
       <c r="S11" s="1">
-        <v>100.67</v>
+        <v>96.68</v>
       </c>
       <c r="T11" s="1">
-        <v>79.61</v>
+        <v>66.31</v>
       </c>
       <c r="U11" s="1">
-        <v>91.61</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="V11" s="1">
-        <v>169.87</v>
+        <v>154.22</v>
       </c>
       <c r="W11" s="1">
-        <v>88.54</v>
+        <v>59.89</v>
       </c>
       <c r="X11" s="1">
-        <v>91.8</v>
+        <v>67.23</v>
       </c>
       <c r="Y11" s="1">
-        <v>62.84</v>
+        <v>58.61</v>
       </c>
       <c r="Z11" s="1">
-        <v>58.5</v>
+        <v>58.75</v>
       </c>
       <c r="AA11" s="1">
-        <v>78.13</v>
+        <v>72.62</v>
       </c>
       <c r="AB11" s="1">
-        <v>68.92</v>
+        <v>101.99</v>
       </c>
       <c r="AC11" s="1">
-        <v>132.86000000000001</v>
+        <v>107.06</v>
       </c>
       <c r="AD11" s="1">
-        <v>122.6</v>
+        <v>88.43</v>
       </c>
       <c r="AE11" s="1">
-        <v>28</v>
+        <v>56.04</v>
       </c>
       <c r="AF11" s="1">
-        <v>70.02</v>
+        <v>64.27</v>
       </c>
       <c r="AG11" s="1">
-        <v>86.55</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
+        <v>50.22</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>61.57</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>74.72</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>89.99</v>
+      </c>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
@@ -1955,9 +2015,15 @@
       <c r="AG12" s="1">
         <v>105.04</v>
       </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
+      <c r="AH12" s="1">
+        <v>61.97</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>92.31</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>109.31</v>
+      </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
@@ -2063,9 +2129,15 @@
       <c r="AG13" s="1">
         <v>69.77</v>
       </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
+      <c r="AH13" s="1">
+        <v>67.67</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>52.97</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>119.09</v>
+      </c>
       <c r="AK13" s="1"/>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
@@ -2073,107 +2145,113 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>89.63</v>
       </c>
       <c r="C14" s="1">
-        <v>58.59</v>
+        <v>102.92</v>
       </c>
       <c r="D14" s="1">
-        <v>88.52</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="E14" s="1">
-        <v>114.61</v>
+        <v>132.21</v>
       </c>
       <c r="F14" s="1">
-        <v>80.83</v>
+        <v>85.18</v>
       </c>
       <c r="G14" s="1">
-        <v>82.56</v>
+        <v>82.41</v>
       </c>
       <c r="H14" s="1">
-        <v>89.95</v>
+        <v>89.74</v>
       </c>
       <c r="I14" s="1">
-        <v>106</v>
+        <v>95.19</v>
       </c>
       <c r="J14" s="1">
-        <v>54.27</v>
+        <v>80.63</v>
       </c>
       <c r="K14" s="1">
-        <v>90.64</v>
+        <v>29.96</v>
       </c>
       <c r="L14" s="1">
-        <v>89.77</v>
+        <v>97.47</v>
       </c>
       <c r="M14" s="1">
-        <v>61.26</v>
+        <v>65.36</v>
       </c>
       <c r="N14" s="1">
-        <v>80.97</v>
+        <v>86.21</v>
       </c>
       <c r="O14" s="1">
-        <v>53.7</v>
+        <v>16.5</v>
       </c>
       <c r="P14" s="1">
-        <v>75.819999999999993</v>
+        <v>105.5</v>
       </c>
       <c r="Q14" s="1">
-        <v>53.65</v>
+        <v>51.67</v>
       </c>
       <c r="R14" s="1">
-        <v>64.25</v>
+        <v>59.74</v>
       </c>
       <c r="S14" s="1">
-        <v>82.42</v>
+        <v>69.8</v>
       </c>
       <c r="T14" s="1">
-        <v>78.400000000000006</v>
+        <v>48.31</v>
       </c>
       <c r="U14" s="1">
-        <v>68.36</v>
+        <v>39.81</v>
       </c>
       <c r="V14" s="1">
-        <v>124.21</v>
+        <v>161.47</v>
       </c>
       <c r="W14" s="1">
-        <v>95.61</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>91.1</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>39.06</v>
+        <v>63.31</v>
       </c>
       <c r="Z14" s="1">
-        <v>58.25</v>
+        <v>46.15</v>
       </c>
       <c r="AA14" s="1">
-        <v>80.84</v>
+        <v>50.9</v>
       </c>
       <c r="AB14" s="1">
-        <v>67.08</v>
+        <v>25.45</v>
       </c>
       <c r="AC14" s="1">
-        <v>95.44</v>
+        <v>85.18</v>
       </c>
       <c r="AD14" s="1">
-        <v>41.59</v>
+        <v>93.04</v>
       </c>
       <c r="AE14" s="1">
-        <v>41.14</v>
+        <v>31.93</v>
       </c>
       <c r="AF14" s="1">
-        <v>57.79</v>
+        <v>66.55</v>
       </c>
       <c r="AG14" s="1">
-        <v>81.64</v>
-      </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
+        <v>63.69</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>65.13</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>53.85</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>103.69</v>
+      </c>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
@@ -2181,107 +2259,113 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>89.63</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>102.92</v>
+        <v>58.59</v>
       </c>
       <c r="D15" s="1">
-        <v>73.319999999999993</v>
+        <v>88.52</v>
       </c>
       <c r="E15" s="1">
-        <v>132.21</v>
+        <v>114.61</v>
       </c>
       <c r="F15" s="1">
-        <v>85.18</v>
+        <v>80.83</v>
       </c>
       <c r="G15" s="1">
-        <v>82.41</v>
+        <v>82.56</v>
       </c>
       <c r="H15" s="1">
-        <v>89.74</v>
+        <v>89.95</v>
       </c>
       <c r="I15" s="1">
-        <v>95.19</v>
+        <v>106</v>
       </c>
       <c r="J15" s="1">
-        <v>80.63</v>
+        <v>54.27</v>
       </c>
       <c r="K15" s="1">
-        <v>29.96</v>
+        <v>90.64</v>
       </c>
       <c r="L15" s="1">
-        <v>97.47</v>
+        <v>89.77</v>
       </c>
       <c r="M15" s="1">
-        <v>65.36</v>
+        <v>61.26</v>
       </c>
       <c r="N15" s="1">
-        <v>86.21</v>
+        <v>80.97</v>
       </c>
       <c r="O15" s="1">
-        <v>16.5</v>
+        <v>53.7</v>
       </c>
       <c r="P15" s="1">
-        <v>105.5</v>
+        <v>75.819999999999993</v>
       </c>
       <c r="Q15" s="1">
-        <v>51.67</v>
+        <v>53.65</v>
       </c>
       <c r="R15" s="1">
-        <v>59.74</v>
+        <v>64.25</v>
       </c>
       <c r="S15" s="1">
-        <v>69.8</v>
+        <v>82.42</v>
       </c>
       <c r="T15" s="1">
-        <v>48.31</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="U15" s="1">
-        <v>39.81</v>
+        <v>68.36</v>
       </c>
       <c r="V15" s="1">
-        <v>161.47</v>
+        <v>124.21</v>
       </c>
       <c r="W15" s="1">
-        <v>73.489999999999995</v>
+        <v>95.61</v>
       </c>
       <c r="X15" s="1">
-        <v>78.900000000000006</v>
+        <v>91.1</v>
       </c>
       <c r="Y15" s="1">
-        <v>63.31</v>
+        <v>39.06</v>
       </c>
       <c r="Z15" s="1">
-        <v>46.15</v>
+        <v>58.25</v>
       </c>
       <c r="AA15" s="1">
-        <v>50.9</v>
+        <v>80.84</v>
       </c>
       <c r="AB15" s="1">
-        <v>25.45</v>
+        <v>67.08</v>
       </c>
       <c r="AC15" s="1">
-        <v>85.18</v>
+        <v>95.44</v>
       </c>
       <c r="AD15" s="1">
-        <v>93.04</v>
+        <v>41.59</v>
       </c>
       <c r="AE15" s="1">
-        <v>31.93</v>
+        <v>41.14</v>
       </c>
       <c r="AF15" s="1">
-        <v>66.55</v>
+        <v>57.79</v>
       </c>
       <c r="AG15" s="1">
-        <v>63.69</v>
-      </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
+        <v>81.64</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>72.39</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>99.21</v>
+      </c>
       <c r="AK15" s="1"/>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
@@ -2387,9 +2471,15 @@
       <c r="AG16" s="1">
         <v>88.92</v>
       </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AH16" s="1">
+        <v>74.67</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>24.47</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>67.94</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2495,9 +2585,15 @@
       <c r="AG17" s="1">
         <v>53.41</v>
       </c>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
+      <c r="AH17" s="1">
+        <v>58.37</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>47.9</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>110.55</v>
+      </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2603,9 +2699,15 @@
       <c r="AG18" s="1">
         <v>27.68</v>
       </c>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="AH18" s="1">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>44.82</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>66.39</v>
+      </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2711,9 +2813,15 @@
       <c r="AG19" s="1">
         <v>92.51</v>
       </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
+      <c r="AH19" s="1">
+        <v>41.27</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>70.290000000000006</v>
+      </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -2819,9 +2927,15 @@
       <c r="AG20" s="1">
         <v>52.86</v>
       </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
+      <c r="AH20" s="1">
+        <v>29.67</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>42.14</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>50.93</v>
+      </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -2927,9 +3041,15 @@
       <c r="AG21" s="1">
         <v>39.18</v>
       </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
+      <c r="AH21" s="1">
+        <v>42.31</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>30.97</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>51.18</v>
+      </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
